--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\VFI-Kurse\Basislehrjahr\20_Ausbildungsmodule\40_Projektmanagement\Vorlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\webiste\foodmood\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Zeitplanung" sheetId="1" r:id="rId1"/>
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AD$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0">
+    <comment ref="I4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Nr.</t>
   </si>
@@ -178,13 +178,7 @@
     <t>Diverses</t>
   </si>
   <si>
-    <t>Fehlerkorrektur</t>
-  </si>
-  <si>
     <t>Zeitplanung erstellen und nachführen</t>
-  </si>
-  <si>
-    <t>Software testen</t>
   </si>
   <si>
     <t>Analyse &amp; Design</t>
@@ -215,12 +209,6 @@
     <t>Sitzungen</t>
   </si>
   <si>
-    <t>Testfälle schreiben</t>
-  </si>
-  <si>
-    <t>Test Dokumentieren</t>
-  </si>
-  <si>
     <t>Thema</t>
   </si>
   <si>
@@ -242,49 +230,55 @@
     <t>KW 4</t>
   </si>
   <si>
-    <t>&lt;Projektname&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Teammitglied 2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Teammitglied 1&gt;</t>
-  </si>
-  <si>
     <t>Anforderungsanalyse</t>
   </si>
   <si>
     <t>Dokumentation</t>
   </si>
   <si>
-    <t>Deployment (Setup erstellen, etc)</t>
+    <t>Administration, Planung, Dokumentation</t>
   </si>
   <si>
-    <t>Benutzerschulung</t>
+    <t>Jonas Koller</t>
   </si>
   <si>
-    <t>&lt;Teammitglied 3&gt;</t>
+    <t>Donato Wolfisberg</t>
   </si>
   <si>
-    <t>Anforderung #04</t>
+    <t>FoodMood</t>
   </si>
   <si>
-    <t>Anforderung #05</t>
+    <t>i.A.</t>
   </si>
   <si>
-    <t>Anforderung #06</t>
+    <t>F.REQ.001</t>
   </si>
   <si>
-    <t>Anforderung #03</t>
+    <t>F.REQ.002</t>
   </si>
   <si>
-    <t>Anforderung #02</t>
+    <t>F.REQ.003</t>
   </si>
   <si>
-    <t>Anforderung #01</t>
+    <t>F.REQ.004</t>
   </si>
   <si>
-    <t>Administration, Planung, Dokumentation</t>
+    <t>F.REQ.005</t>
+  </si>
+  <si>
+    <t>F.REQ.006</t>
+  </si>
+  <si>
+    <t>F.REQ.101</t>
+  </si>
+  <si>
+    <t>F.REQ.102</t>
+  </si>
+  <si>
+    <t>F.REQ.103</t>
+  </si>
+  <si>
+    <t>F.REQ.201</t>
   </si>
 </sst>
 </file>
@@ -294,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -412,8 +406,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,25 +439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,8 +449,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="85">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -736,19 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -866,17 +860,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1221,41 +1204,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1438,51 +1391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1491,21 +1399,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1533,19 +1426,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1597,45 +1490,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,9 +1529,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,154 +1577,103 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="72" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="77" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="78" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="80" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,104 +1682,188 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="76" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="62" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="7" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="84" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="66" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="54" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1960,7 +1874,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1969,40 +1883,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2096,52 +2046,52 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>42370</c:v>
+                  <c:v>42702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42371</c:v>
+                  <c:v>42703</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42372</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42373</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42374</c:v>
+                  <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42377</c:v>
+                  <c:v>42709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42378</c:v>
+                  <c:v>42710</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42379</c:v>
+                  <c:v>42711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42380</c:v>
+                  <c:v>42712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42381</c:v>
+                  <c:v>42713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42384</c:v>
+                  <c:v>42716</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42385</c:v>
+                  <c:v>42717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42386</c:v>
+                  <c:v>42718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42387</c:v>
+                  <c:v>42719</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42388</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42391</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,19 +2290,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2417,7 +2367,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2520,7 +2470,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2194" name="Chart 2"/>
+        <xdr:cNvPr id="2194" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000092080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2552,7 +2508,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2921,66 +2883,65 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AN42"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD25"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" style="9" customWidth="1"/>
     <col min="3" max="3" width="5" style="9" customWidth="1"/>
     <col min="4" max="4" width="5" style="21" customWidth="1"/>
     <col min="5" max="5" width="5" style="9" customWidth="1"/>
-    <col min="6" max="8" width="3.125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="22" customWidth="1"/>
-    <col min="11" max="30" width="3.125" style="9" customWidth="1"/>
-    <col min="31" max="31" width="4.25" style="8" customWidth="1"/>
-    <col min="32" max="40" width="12.5" style="8" customWidth="1"/>
-    <col min="41" max="16384" width="12.5" style="9"/>
+    <col min="6" max="7" width="3.09765625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.19921875" style="22" customWidth="1"/>
+    <col min="10" max="29" width="3.09765625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="4.19921875" style="8" customWidth="1"/>
+    <col min="31" max="39" width="12.5" style="8" customWidth="1"/>
+    <col min="40" max="16384" width="12.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-    </row>
-    <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+      <c r="O1" s="154"/>
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="154"/>
+      <c r="W1" s="154"/>
+      <c r="X1" s="154"/>
+      <c r="Y1" s="154"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="154"/>
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="154"/>
+    </row>
+    <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2989,1500 +2950,1341 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="149" t="s">
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="156"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
-      <c r="G3" s="26"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="148" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="149"/>
-      <c r="AB3" s="149"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="150"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
+      <c r="M3" s="156"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="155" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
+      <c r="R3" s="156"/>
+      <c r="S3" s="156"/>
+      <c r="T3" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="156"/>
+      <c r="V3" s="156"/>
+      <c r="W3" s="156"/>
+      <c r="X3" s="156"/>
+      <c r="Y3" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="156"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="156"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-    </row>
-    <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="28" t="s">
+    </row>
+    <row r="4" spans="1:33" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="107">
+        <v>42702</v>
+      </c>
+      <c r="K4" s="120">
+        <v>42703</v>
+      </c>
+      <c r="L4" s="120">
+        <v>42704</v>
+      </c>
+      <c r="M4" s="107">
+        <v>42705</v>
+      </c>
+      <c r="N4" s="107">
+        <v>42706</v>
+      </c>
+      <c r="O4" s="32">
+        <f>N4+3</f>
+        <v>42709</v>
+      </c>
+      <c r="P4" s="121">
+        <f>O4+1</f>
+        <v>42710</v>
+      </c>
+      <c r="Q4" s="121">
+        <f>P4+1</f>
+        <v>42711</v>
+      </c>
+      <c r="R4" s="30">
+        <f>Q4+1</f>
+        <v>42712</v>
+      </c>
+      <c r="S4" s="33">
+        <f>R4+1</f>
+        <v>42713</v>
+      </c>
+      <c r="T4" s="32">
+        <f>S4+3</f>
+        <v>42716</v>
+      </c>
+      <c r="U4" s="122">
+        <f>T4+1</f>
+        <v>42717</v>
+      </c>
+      <c r="V4" s="122">
+        <f>U4+1</f>
+        <v>42718</v>
+      </c>
+      <c r="W4" s="30">
+        <f>V4+1</f>
+        <v>42719</v>
+      </c>
+      <c r="X4" s="31">
+        <f>W4+1</f>
+        <v>42720</v>
+      </c>
+      <c r="Y4" s="32">
+        <f>X4+3</f>
+        <v>42723</v>
+      </c>
+      <c r="Z4" s="122">
+        <f>Y4+1</f>
+        <v>42724</v>
+      </c>
+      <c r="AA4" s="122">
+        <f>Z4+1</f>
+        <v>42725</v>
+      </c>
+      <c r="AB4" s="34">
+        <f>AA4+1</f>
+        <v>42726</v>
+      </c>
+      <c r="AC4" s="76">
+        <f>AB4+1</f>
+        <v>42727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="91">
+        <v>10</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="94">
+        <f>SUM(C6:C10)</f>
+        <v>15</v>
+      </c>
+      <c r="D5" s="95">
+        <f>SUM(D6:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="104"/>
+    </row>
+    <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71">
+        <v>11</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="36">
+        <v>5</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="35">
+        <v>1</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="161" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="132">
-        <v>42370</v>
-      </c>
-      <c r="L4" s="32">
-        <v>42371</v>
-      </c>
-      <c r="M4" s="32">
-        <f>L4+1</f>
-        <v>42372</v>
-      </c>
-      <c r="N4" s="33">
-        <f>M4+1</f>
-        <v>42373</v>
-      </c>
-      <c r="O4" s="34">
-        <f>N4+1</f>
-        <v>42374</v>
-      </c>
-      <c r="P4" s="35">
-        <f>O4+3</f>
-        <v>42377</v>
-      </c>
-      <c r="Q4" s="32">
-        <f>P4+1</f>
-        <v>42378</v>
-      </c>
-      <c r="R4" s="32">
-        <f>Q4+1</f>
-        <v>42379</v>
-      </c>
-      <c r="S4" s="32">
-        <f>R4+1</f>
-        <v>42380</v>
-      </c>
-      <c r="T4" s="36">
-        <f>S4+1</f>
-        <v>42381</v>
-      </c>
-      <c r="U4" s="35">
-        <f>T4+3</f>
-        <v>42384</v>
-      </c>
-      <c r="V4" s="37">
-        <f>U4+1</f>
-        <v>42385</v>
-      </c>
-      <c r="W4" s="37">
-        <f>V4+1</f>
-        <v>42386</v>
-      </c>
-      <c r="X4" s="32">
-        <f>W4+1</f>
-        <v>42387</v>
-      </c>
-      <c r="Y4" s="34">
-        <f>X4+1</f>
-        <v>42388</v>
-      </c>
-      <c r="Z4" s="35">
-        <f>Y4+3</f>
-        <v>42391</v>
-      </c>
-      <c r="AA4" s="37">
-        <f>Z4+1</f>
-        <v>42392</v>
-      </c>
-      <c r="AB4" s="37">
-        <f>AA4+1</f>
-        <v>42393</v>
-      </c>
-      <c r="AC4" s="37">
-        <f>AB4+1</f>
-        <v>42394</v>
-      </c>
-      <c r="AD4" s="93">
-        <f>AC4+1</f>
-        <v>42395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116">
-        <v>10</v>
-      </c>
-      <c r="B5" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="119">
-        <f>SUM(C6:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="120">
-        <f>SUM(D6:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="123"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="123"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="129"/>
-    </row>
-    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
-        <v>11</v>
-      </c>
-      <c r="B6" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40" t="str">
-        <f>IF(SUM(K6:AD6)=0," ",SUM(K6:AD6))</f>
+      <c r="J6" s="123"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="78"/>
+    </row>
+    <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71">
+        <v>12</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="46">
+        <v>1</v>
+      </c>
+      <c r="D7" s="37" t="str">
+        <f t="shared" ref="D7:D10" si="0">IF(SUM(J7:AC7)=0," ",SUM(J7:AC7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="38">
+      <c r="E7" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="95"/>
-    </row>
-    <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
-        <v>12</v>
-      </c>
-      <c r="B7" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="40" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(K7:AD7)=0," ",SUM(K7:AD7))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" s="49">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="44"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="123"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="48"/>
       <c r="X7" s="52"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="97"/>
-    </row>
-    <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="80"/>
+    </row>
+    <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71">
         <v>13</v>
       </c>
-      <c r="B8" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="40" t="str">
+      <c r="B8" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="46">
+        <v>4</v>
+      </c>
+      <c r="D8" s="37" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="45">
         <v>1</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="98"/>
-      <c r="AF8" s="8" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="144"/>
+      <c r="AC8" s="135"/>
+      <c r="AE8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71">
         <v>14</v>
       </c>
-      <c r="B9" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="40" t="str">
+      <c r="B9" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="46">
+        <v>2</v>
+      </c>
+      <c r="D9" s="37" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="45">
         <v>1</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="98"/>
-    </row>
-    <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88">
+      <c r="F9" s="36"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="81"/>
+    </row>
+    <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71">
         <v>15</v>
       </c>
-      <c r="B10" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="40" t="str">
+      <c r="B10" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="57">
+        <v>3</v>
+      </c>
+      <c r="D10" s="37" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="56">
         <v>1</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="68"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="98"/>
-    </row>
-    <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116">
+      <c r="F10" s="47"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="129"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="131"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="129"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="135"/>
+    </row>
+    <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="91">
         <v>20</v>
       </c>
-      <c r="B11" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="130">
+      <c r="B11" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="105">
         <f>SUM(C12:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="119">
+        <v>1</v>
+      </c>
+      <c r="D11" s="94">
         <f>SUM(D12:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="127"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="127"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="127"/>
-      <c r="Y11" s="123"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="127"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="129"/>
-    </row>
-    <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+        <v>1</v>
+      </c>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="104"/>
+    </row>
+    <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="72">
         <v>21</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="75" t="str">
-        <f>IF(SUM(K12:AD12)=0," ",SUM(K12:AD12))</f>
+      <c r="B12" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="36">
+        <v>1</v>
+      </c>
+      <c r="D12" s="61">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="145"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="83"/>
+    </row>
+    <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="72">
+        <v>22</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="61" t="str">
+        <f t="shared" ref="D13:D14" si="1">IF(SUM(J13:AC13)=0," ",SUM(J13:AC13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="100"/>
-    </row>
-    <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
-        <v>22</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="75" t="str">
-        <f t="shared" ref="D13:D14" si="1">IF(SUM(K13:AD13)=0," ",SUM(K13:AD13))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="100"/>
-    </row>
-    <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="83"/>
+    </row>
+    <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="72">
         <v>23</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="75" t="str">
+      <c r="B14" s="77"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <v>1</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="100"/>
-    </row>
-    <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116">
+      <c r="F14" s="36"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="63"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="83"/>
+    </row>
+    <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="91">
         <v>30</v>
       </c>
-      <c r="B15" s="117" t="s">
+      <c r="B15" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="119">
+      <c r="C15" s="94">
         <f>SUM(C16:C21)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="120">
+        <v>36</v>
+      </c>
+      <c r="D15" s="95">
         <f>SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="123"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="127"/>
-      <c r="W15" s="127"/>
-      <c r="X15" s="127"/>
-      <c r="Y15" s="123"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="127"/>
-      <c r="AB15" s="127"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="129"/>
-    </row>
-    <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="104"/>
+    </row>
+    <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="72">
         <v>31</v>
       </c>
-      <c r="B16" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="75" t="str">
-        <f>IF(SUM(K16:AD16)=0," ",SUM(K16:AD16))</f>
+      <c r="B16" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="36">
+        <v>6</v>
+      </c>
+      <c r="D16" s="61" t="str">
+        <f>IF(SUM(J16:AC16)=0," ",SUM(J16:AC16))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="35">
         <v>1</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="100"/>
-    </row>
-    <row r="17" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="F16" s="36"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="166"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="171"/>
+      <c r="U16" s="166"/>
+      <c r="V16" s="166"/>
+      <c r="W16" s="166"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="169"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="83"/>
+    </row>
+    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72">
         <v>32</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="36">
+        <v>6</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="35">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="166"/>
+      <c r="V17" s="166"/>
+      <c r="W17" s="166"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="169"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="83"/>
+    </row>
+    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="72">
+        <v>33</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="36">
+        <v>5</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="35">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="166"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="171"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="166"/>
+      <c r="W18" s="166"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="83"/>
+    </row>
+    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="72">
+        <v>34</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="36">
+        <v>4</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="35">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="169"/>
+      <c r="Q19" s="166"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="171"/>
+      <c r="U19" s="166"/>
+      <c r="V19" s="166"/>
+      <c r="W19" s="166"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="169"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="83"/>
+    </row>
+    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="72">
+        <v>35</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="36">
+        <v>8</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="35">
+        <v>1</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="170"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="169"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="83"/>
+    </row>
+    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="72">
+        <v>36</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="46">
+        <v>7</v>
+      </c>
+      <c r="D21" s="37" t="str">
+        <f>IF(SUM(J21:AC21)=0," ",SUM(J21:AC21))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E21" s="45">
+        <v>3</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="144"/>
+      <c r="U21" s="173"/>
+      <c r="V21" s="166"/>
+      <c r="W21" s="173"/>
+      <c r="X21" s="178"/>
+      <c r="Y21" s="179"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="81"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72">
+        <v>37</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="46">
+        <v>9</v>
+      </c>
+      <c r="D22" s="37" t="str">
+        <f t="shared" ref="D22:D25" si="2">IF(SUM(J22:AC22)=0," ",SUM(J22:AC22))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="174"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="166"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="173"/>
+      <c r="V22" s="166"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="178"/>
+      <c r="Y22" s="179"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="37"/>
+      <c r="AC22" s="81"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="72">
+        <v>38</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="46">
+        <v>7</v>
+      </c>
+      <c r="D23" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="174"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="176"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="136"/>
+      <c r="X23" s="148"/>
+      <c r="Y23" s="179"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="50"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="81"/>
+    </row>
+    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="72">
+        <v>39</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="46">
+        <v>5</v>
+      </c>
+      <c r="D24" s="37" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E24" s="45">
+        <v>3</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="174"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="166"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="176"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="166"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="50"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="81"/>
+    </row>
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="72">
+        <v>40</v>
+      </c>
+      <c r="B25" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="100"/>
-    </row>
-    <row r="18" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
-        <v>33</v>
-      </c>
-      <c r="B18" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="100"/>
-    </row>
-    <row r="19" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
-        <v>34</v>
-      </c>
-      <c r="B19" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="75"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="100"/>
-    </row>
-    <row r="20" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89">
-        <v>35</v>
-      </c>
-      <c r="B20" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="38">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="100"/>
-    </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89">
-        <v>36</v>
-      </c>
-      <c r="B21" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="40" t="str">
-        <f>IF(SUM(K21:AD21)=0," ",SUM(K21:AD21))</f>
+      <c r="C25" s="46">
+        <v>2</v>
+      </c>
+      <c r="D25" s="37" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="49">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="98"/>
-    </row>
-    <row r="22" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116">
-        <v>40</v>
-      </c>
-      <c r="B22" s="117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="119">
-        <f>SUM(C23:C26)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="120">
-        <f>SUM(D23:D26)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="126"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="126"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="123"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="129"/>
-    </row>
-    <row r="23" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
-        <v>30</v>
-      </c>
-      <c r="B23" s="102" t="s">
+      <c r="E25" s="45">
+        <v>3</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="174"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="166"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="173"/>
+      <c r="V25" s="166"/>
+      <c r="W25" s="173"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="81"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="91">
+        <v>50</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="94">
+        <f>SUM(C27)</f>
         <v>26</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="75" t="str">
-        <f>IF(SUM(K23:AD23)=0," ",SUM(K23:AD23))</f>
+      <c r="D26" s="95">
+        <f>SUM(D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="96"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="103"/>
+      <c r="AC26" s="104"/>
+    </row>
+    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73">
+        <v>51</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="59">
+        <f>SUM(C5,C11,C15)*0.5</f>
+        <v>26</v>
+      </c>
+      <c r="D27" s="67" t="str">
+        <f>IF(SUM(J27:AC27)=0," ",SUM(J27:AC27))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="38">
-        <v>1</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="75"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
-      <c r="AD23" s="103"/>
-    </row>
-    <row r="24" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89">
-        <v>31</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="75" t="str">
-        <f>IF(SUM(K24:AD24)=0," ",SUM(K24:AD24))</f>
+      <c r="E27" s="64">
+        <v>3</v>
+      </c>
+      <c r="F27" s="59"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="80"/>
+    </row>
+    <row r="28" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="90"/>
+      <c r="B28" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="110">
+        <f>SUM(C5,C11,C15,C26)</f>
+        <v>78</v>
+      </c>
+      <c r="D28" s="110" t="str">
+        <f>IF(SUM(J28:AC28)=0," ",SUM(J28:AC28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="38">
-        <v>1</v>
-      </c>
-      <c r="F24" s="39"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="54"/>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="104"/>
-    </row>
-    <row r="25" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
-        <v>32</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="75" t="str">
-        <f>IF(SUM(K25:AD25)=0," ",SUM(K25:AD25))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E25" s="79">
-        <v>1</v>
-      </c>
-      <c r="F25" s="51"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="97"/>
-    </row>
-    <row r="26" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88">
-        <v>33</v>
-      </c>
-      <c r="B26" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="70" t="str">
-        <f>IF(SUM(K26:AD26)=0," ",SUM(K26:AD26))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E26" s="60">
-        <v>2</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="106"/>
-    </row>
-    <row r="27" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116">
-        <v>50</v>
-      </c>
-      <c r="B27" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="119">
-        <f>SUM(C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="120">
-        <f>SUM(D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="122"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="127"/>
-      <c r="W27" s="127"/>
-      <c r="X27" s="127"/>
-      <c r="Y27" s="123"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="129"/>
-    </row>
-    <row r="28" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90">
-        <v>51</v>
-      </c>
-      <c r="B28" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="71">
-        <f>(C5+C11+C15+C22)*0.2</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="82" t="str">
-        <f>IF(SUM(K28:AD28)=0," ",SUM(K28:AD28))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E28" s="79">
-        <v>3</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="113"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="81"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="81"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
-      <c r="AC28" s="81"/>
-      <c r="AD28" s="97"/>
-    </row>
-    <row r="29" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116">
-        <v>60</v>
-      </c>
-      <c r="B29" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="119">
-        <f>SUM(C30:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="120">
-        <f>SUM(D30:D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="118"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="126"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="127"/>
-      <c r="W29" s="127"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="123"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="129"/>
-    </row>
-    <row r="30" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89">
-        <v>61</v>
-      </c>
-      <c r="B30" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="75" t="str">
-        <f>IF(SUM(K30:AD30)=0," ",SUM(K30:AD30))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E30" s="38">
-        <v>2</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="46"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="104"/>
-    </row>
-    <row r="31" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88">
-        <v>62</v>
-      </c>
-      <c r="B31" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="40" t="str">
-        <f>IF(SUM(K31:AD31)=0," ",SUM(K31:AD31))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E31" s="49">
-        <v>1</v>
-      </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="54"/>
-      <c r="AC31" s="54"/>
-      <c r="AD31" s="104"/>
-    </row>
-    <row r="32" spans="1:30" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
-      <c r="B32" s="134" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="135">
-        <f>SUM(C5+C11+C15+C22+C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="135" t="str">
-        <f>IF(SUM(K32:AD32)=0," ",SUM(K32:AD32))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138">
-        <f t="shared" ref="K32:AD32" si="2">SUM(K5:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="141"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-    </row>
-    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="142"/>
-      <c r="B34" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="145"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="145"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="145"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="145"/>
-      <c r="Z34" s="145"/>
-      <c r="AA34" s="145"/>
-      <c r="AB34" s="145"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="145"/>
-    </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113">
+        <f t="shared" ref="J28:AC28" si="3">SUM(J5:J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="114">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="110">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="115">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="116"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+    </row>
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="119"/>
+      <c r="B30" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="152"/>
+      <c r="Y30" s="152"/>
+      <c r="Z30" s="152"/>
+      <c r="AA30" s="152"/>
+      <c r="AB30" s="152"/>
+      <c r="AC30" s="152"/>
+    </row>
+    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
+      <c r="N31" s="150"/>
+      <c r="O31" s="150"/>
+      <c r="P31" s="150"/>
+      <c r="Q31" s="150"/>
+      <c r="R31" s="150"/>
+      <c r="S31" s="150"/>
+      <c r="T31" s="150"/>
+      <c r="U31" s="150"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150"/>
+    </row>
+    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="150"/>
+      <c r="Q32" s="150"/>
+      <c r="R32" s="150"/>
+      <c r="S32" s="150"/>
+      <c r="T32" s="150"/>
+      <c r="U32" s="150"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="150"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="143"/>
-      <c r="W35" s="143"/>
-      <c r="X35" s="143"/>
-      <c r="Y35" s="143"/>
-      <c r="Z35" s="143"/>
-      <c r="AA35" s="143"/>
-      <c r="AB35" s="143"/>
-      <c r="AC35" s="143"/>
-      <c r="AD35" s="143"/>
-    </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="143"/>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="143"/>
-      <c r="W36" s="143"/>
-      <c r="X36" s="143"/>
-      <c r="Y36" s="143"/>
-      <c r="Z36" s="143"/>
-      <c r="AA36" s="143"/>
-      <c r="AB36" s="143"/>
-      <c r="AC36" s="143"/>
-      <c r="AD36" s="143"/>
-    </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J42" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="K35:AD36"/>
-    <mergeCell ref="K34:AD34"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="J31:AC32"/>
+    <mergeCell ref="J30:AC30"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4507,33 +4309,33 @@
       <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="154"/>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="161"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4550,278 +4352,278 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7">
+        <f>'IPA Zeitplanung'!J$4</f>
+        <v>42702</v>
+      </c>
+      <c r="C4" s="5">
+        <f>'IPA Zeitplanung'!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7">
         <f>'IPA Zeitplanung'!K$4</f>
-        <v>42370</v>
-      </c>
-      <c r="C4" s="5">
-        <f>'IPA Zeitplanung'!K32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="7">
-        <f>'IPA Zeitplanung'!L$4</f>
-        <v>42371</v>
+        <v>42703</v>
       </c>
       <c r="C5" s="5">
-        <f>'IPA Zeitplanung'!L32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!K28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7">
-        <f>'IPA Zeitplanung'!M$4</f>
-        <v>42372</v>
+        <f>'IPA Zeitplanung'!L$4</f>
+        <v>42704</v>
       </c>
       <c r="C6" s="5">
-        <f>'IPA Zeitplanung'!M32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!L28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="7">
-        <f>'IPA Zeitplanung'!N$4</f>
-        <v>42373</v>
+        <f>'IPA Zeitplanung'!M$4</f>
+        <v>42705</v>
       </c>
       <c r="C7" s="5">
-        <f>'IPA Zeitplanung'!N32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!M28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="7">
-        <f>'IPA Zeitplanung'!O$4</f>
-        <v>42374</v>
+        <f>'IPA Zeitplanung'!N$4</f>
+        <v>42706</v>
       </c>
       <c r="C8" s="5">
-        <f>'IPA Zeitplanung'!O32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!N28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="7">
-        <f>'IPA Zeitplanung'!P$4</f>
-        <v>42377</v>
+        <f>'IPA Zeitplanung'!O$4</f>
+        <v>42709</v>
       </c>
       <c r="C9" s="5">
-        <f>'IPA Zeitplanung'!P32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!O28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="7">
-        <f>'IPA Zeitplanung'!Q$4</f>
-        <v>42378</v>
+        <f>'IPA Zeitplanung'!P$4</f>
+        <v>42710</v>
       </c>
       <c r="C10" s="5">
-        <f>'IPA Zeitplanung'!Q32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!P28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>0.4</v>
       </c>
       <c r="B11" s="7">
+        <f>'IPA Zeitplanung'!Q$4</f>
+        <v>42711</v>
+      </c>
+      <c r="C11" s="5">
+        <f>'IPA Zeitplanung'!Q28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7">
         <f>'IPA Zeitplanung'!R$4</f>
-        <v>42379</v>
-      </c>
-      <c r="C11" s="5">
-        <f>'IPA Zeitplanung'!R32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7">
-        <f>'IPA Zeitplanung'!S$4</f>
-        <v>42380</v>
+        <v>42712</v>
       </c>
       <c r="C12" s="5">
-        <f>'IPA Zeitplanung'!S32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!R28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="7">
-        <f>'IPA Zeitplanung'!T$4</f>
-        <v>42381</v>
+        <f>'IPA Zeitplanung'!S$4</f>
+        <v>42713</v>
       </c>
       <c r="C13" s="5">
-        <f>'IPA Zeitplanung'!T32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!S28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1</v>
       </c>
       <c r="B14" s="7">
-        <f>'IPA Zeitplanung'!U$4</f>
-        <v>42384</v>
+        <f>'IPA Zeitplanung'!T$4</f>
+        <v>42716</v>
       </c>
       <c r="C14" s="5">
-        <f>'IPA Zeitplanung'!U32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!T28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>1</v>
       </c>
       <c r="B15" s="7">
-        <f>'IPA Zeitplanung'!V$4</f>
-        <v>42385</v>
+        <f>'IPA Zeitplanung'!U$4</f>
+        <v>42717</v>
       </c>
       <c r="C15" s="5">
-        <f>'IPA Zeitplanung'!V32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!U28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>1</v>
       </c>
       <c r="B16" s="7">
+        <f>'IPA Zeitplanung'!V$4</f>
+        <v>42718</v>
+      </c>
+      <c r="C16" s="5">
+        <f>'IPA Zeitplanung'!V28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7">
         <f>'IPA Zeitplanung'!W$4</f>
-        <v>42386</v>
-      </c>
-      <c r="C16" s="5">
-        <f>'IPA Zeitplanung'!W32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7">
-        <f>'IPA Zeitplanung'!X$4</f>
-        <v>42387</v>
+        <v>42719</v>
       </c>
       <c r="C17" s="5">
-        <f>'IPA Zeitplanung'!X32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!W28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0.5</v>
       </c>
       <c r="B18" s="7">
-        <f>'IPA Zeitplanung'!Y$4</f>
-        <v>42388</v>
+        <f>'IPA Zeitplanung'!X$4</f>
+        <v>42720</v>
       </c>
       <c r="C18" s="5">
-        <f>'IPA Zeitplanung'!Y32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!X28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>1</v>
       </c>
       <c r="B19" s="7">
+        <f>'IPA Zeitplanung'!Y$4</f>
+        <v>42723</v>
+      </c>
+      <c r="C19" s="5">
+        <f>'IPA Zeitplanung'!Y28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7">
         <f>'IPA Zeitplanung'!Z$4</f>
-        <v>42391</v>
-      </c>
-      <c r="C19" s="5">
-        <f>'IPA Zeitplanung'!Z32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>0</v>
-      </c>
-      <c r="B20" s="7">
-        <f>'IPA Zeitplanung'!AA$4</f>
-        <v>42392</v>
+        <v>42724</v>
       </c>
       <c r="C20" s="5">
-        <f>'IPA Zeitplanung'!AA32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!Z28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>1</v>
       </c>
       <c r="B21" s="7">
+        <f>'IPA Zeitplanung'!AA$4</f>
+        <v>42725</v>
+      </c>
+      <c r="C21" s="5">
+        <f>'IPA Zeitplanung'!AA28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7">
         <f>'IPA Zeitplanung'!AB$4</f>
-        <v>42393</v>
-      </c>
-      <c r="C21" s="5">
-        <f>'IPA Zeitplanung'!AB32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>0</v>
-      </c>
-      <c r="B22" s="7">
-        <f>'IPA Zeitplanung'!AC$4</f>
-        <v>42394</v>
+        <v>42726</v>
       </c>
       <c r="C22" s="5">
-        <f>'IPA Zeitplanung'!AC32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!AB28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="B23" s="7">
-        <f>'IPA Zeitplanung'!AD$4</f>
-        <v>42395</v>
+        <f>'IPA Zeitplanung'!AC$4</f>
+        <v>42727</v>
       </c>
       <c r="C23" s="5">
-        <f>'IPA Zeitplanung'!AD32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>'IPA Zeitplanung'!AC28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -4834,105 +4636,105 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="155" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="156"/>
+    <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="163"/>
       <c r="C27" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="153"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="158"/>
+    <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="165"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="152" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="157" t="s">
+    <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="5">
-        <f>'IPA Zeitplanung'!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <f>'IPA Zeitplanung'!D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="152" t="s">
+      <c r="B31" s="165"/>
+      <c r="C31" s="5" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="5" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="153"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="5">
-        <f>'IPA Zeitplanung'!C27</f>
-        <v>0</v>
+        <f>'IPA Zeitplanung'!C26</f>
+        <v>26</v>
       </c>
       <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152" t="s">
+        <f>SUM('IPA Zeitplanung'!D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="153"/>
-      <c r="C33" s="5">
-        <f>'IPA Zeitplanung'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <f>'IPA Zeitplanung'!D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="5" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="5" t="e">
+        <f>'IPA Zeitplanung'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A32:B32"/>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\webiste\foodmood\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\foodmood\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Nr.</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>F.REQ.201</t>
+  </si>
+  <si>
+    <t>Ferien</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +476,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="77">
     <border>
@@ -1426,7 +1435,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1514,9 +1523,6 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1865,6 +1871,51 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1909,49 +1960,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1964,6 +1976,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4343"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2889,7 +2906,7 @@
       <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30:AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2909,37 +2926,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="154"/>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="154"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
     </row>
     <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
@@ -2953,55 +2970,55 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="156" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="156"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="156" t="s">
+      <c r="J3" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="155" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="155" t="s">
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="155" t="s">
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="157"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="171"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
     </row>
     <row r="4" spans="1:33" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="75"/>
+      <c r="A4" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74"/>
       <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
@@ -3011,42 +3028,42 @@
       <c r="E4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="116" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="107">
+      <c r="J4" s="106">
         <v>42702</v>
       </c>
-      <c r="K4" s="120">
+      <c r="K4" s="119">
         <v>42703</v>
       </c>
-      <c r="L4" s="120">
+      <c r="L4" s="119">
         <v>42704</v>
       </c>
-      <c r="M4" s="107">
+      <c r="M4" s="106">
         <v>42705</v>
       </c>
-      <c r="N4" s="107">
+      <c r="N4" s="106">
         <v>42706</v>
       </c>
       <c r="O4" s="32">
         <f>N4+3</f>
         <v>42709</v>
       </c>
-      <c r="P4" s="121">
+      <c r="P4" s="120">
         <f>O4+1</f>
         <v>42710</v>
       </c>
-      <c r="Q4" s="121">
+      <c r="Q4" s="120">
         <f>P4+1</f>
         <v>42711</v>
       </c>
@@ -3054,7 +3071,7 @@
         <f>Q4+1</f>
         <v>42712</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="180">
         <f>R4+1</f>
         <v>42713</v>
       </c>
@@ -3062,11 +3079,11 @@
         <f>S4+3</f>
         <v>42716</v>
       </c>
-      <c r="U4" s="122">
+      <c r="U4" s="121">
         <f>T4+1</f>
         <v>42717</v>
       </c>
-      <c r="V4" s="122">
+      <c r="V4" s="121">
         <f>U4+1</f>
         <v>42718</v>
       </c>
@@ -3082,1081 +3099,1081 @@
         <f>X4+3</f>
         <v>42723</v>
       </c>
-      <c r="Z4" s="122">
+      <c r="Z4" s="121">
         <f>Y4+1</f>
         <v>42724</v>
       </c>
-      <c r="AA4" s="122">
+      <c r="AA4" s="121">
         <f>Z4+1</f>
         <v>42725</v>
       </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="33">
         <f>AA4+1</f>
         <v>42726</v>
       </c>
-      <c r="AC4" s="76">
+      <c r="AC4" s="75">
         <f>AB4+1</f>
         <v>42727</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91">
+      <c r="A5" s="90">
         <v>10</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="93">
         <f>SUM(C6:C10)</f>
         <v>15</v>
       </c>
-      <c r="D5" s="95">
+      <c r="D5" s="94">
         <f>SUM(D6:D10)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="93"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="93"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="104"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="103"/>
     </row>
     <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+      <c r="A6" s="70">
         <v>11</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>5</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="35">
+      <c r="D6" s="36"/>
+      <c r="E6" s="34">
         <v>1</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="87" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="123"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="78"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="77"/>
     </row>
     <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71">
+      <c r="A7" s="70">
         <v>12</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="37" t="str">
+      <c r="D7" s="36" t="str">
         <f t="shared" ref="D7:D10" si="0">IF(SUM(J7:AC7)=0," ",SUM(J7:AC7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>1</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="88" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="123"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="80"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="79"/>
     </row>
     <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71">
+      <c r="A8" s="70">
         <v>13</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>4</v>
       </c>
-      <c r="D8" s="37" t="str">
+      <c r="D8" s="36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="44">
         <v>1</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="124"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="135"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="139"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="134"/>
       <c r="AE8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71">
+      <c r="A9" s="70">
         <v>14</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="37" t="str">
+      <c r="D9" s="36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>1</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="81"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="80"/>
     </row>
     <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71">
+      <c r="A10" s="70">
         <v>15</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="56">
         <v>3</v>
       </c>
-      <c r="D10" s="37" t="str">
+      <c r="D10" s="36" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>1</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="126"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="129"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="129"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="135"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="126"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="134"/>
     </row>
     <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91">
+      <c r="A11" s="90">
         <v>20</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="104">
         <f>SUM(C12:C14)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="93">
         <f>SUM(D12:D14)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="104"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="100"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="101"/>
+      <c r="AA11" s="101"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="103"/>
     </row>
     <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72">
+      <c r="A12" s="71">
         <v>21</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>1</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="60">
         <v>1</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="88" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="145"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="83"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="82"/>
     </row>
     <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="72">
+      <c r="A13" s="71">
         <v>22</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="61" t="str">
+      <c r="B13" s="76"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="60" t="str">
         <f t="shared" ref="D13:D14" si="1">IF(SUM(J13:AC13)=0," ",SUM(J13:AC13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="83"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="82"/>
     </row>
     <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72">
+      <c r="A14" s="71">
         <v>23</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="61" t="str">
+      <c r="B14" s="76"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="60" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>1</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="40" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="63"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="83"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="82"/>
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="91">
+      <c r="A15" s="90">
         <v>30</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="93">
         <f>SUM(C16:C21)</f>
         <v>36</v>
       </c>
-      <c r="D15" s="95">
+      <c r="D15" s="94">
         <f>SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="102"/>
-      <c r="V15" s="102"/>
-      <c r="W15" s="102"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="102"/>
-      <c r="AB15" s="103"/>
-      <c r="AC15" s="104"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="101"/>
+      <c r="W15" s="101"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="101"/>
+      <c r="AA15" s="101"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="103"/>
     </row>
     <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72">
+      <c r="A16" s="71">
         <v>31</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>6</v>
       </c>
-      <c r="D16" s="61" t="str">
+      <c r="D16" s="60" t="str">
         <f>IF(SUM(J16:AC16)=0," ",SUM(J16:AC16))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>1</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="166"/>
-      <c r="R16" s="169"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="171"/>
-      <c r="U16" s="166"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="168"/>
-      <c r="Z16" s="169"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="83"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="151"/>
+      <c r="P16" s="152"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="152"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="151"/>
+      <c r="Z16" s="152"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="82"/>
     </row>
     <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72">
+      <c r="A17" s="71">
         <v>32</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>6</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="35">
+      <c r="D17" s="60"/>
+      <c r="E17" s="34">
         <v>1</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="137"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="171"/>
-      <c r="U17" s="166"/>
-      <c r="V17" s="166"/>
-      <c r="W17" s="166"/>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="168"/>
-      <c r="Z17" s="169"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="83"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="152"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="152"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="152"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="82"/>
     </row>
     <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72">
+      <c r="A18" s="71">
         <v>33</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>5</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="35">
+      <c r="D18" s="60"/>
+      <c r="E18" s="34">
         <v>1</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="171"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="169"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="83"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="152"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="152"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="151"/>
+      <c r="Z18" s="152"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="82"/>
     </row>
     <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72">
+      <c r="A19" s="71">
         <v>34</v>
       </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>4</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="35">
+      <c r="D19" s="60"/>
+      <c r="E19" s="34">
         <v>1</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="166"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="171"/>
-      <c r="U19" s="166"/>
-      <c r="V19" s="166"/>
-      <c r="W19" s="166"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="168"/>
-      <c r="Z19" s="169"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="83"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="150"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="152"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="151"/>
+      <c r="Z19" s="152"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="82"/>
     </row>
     <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="72">
+      <c r="A20" s="71">
         <v>35</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>8</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="35">
+      <c r="D20" s="60"/>
+      <c r="E20" s="34">
         <v>1</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="166"/>
-      <c r="V20" s="166"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="168"/>
-      <c r="Z20" s="169"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="83"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="152"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="151"/>
+      <c r="Z20" s="152"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="82"/>
     </row>
     <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="72">
+      <c r="A21" s="71">
         <v>36</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="45">
         <v>7</v>
       </c>
-      <c r="D21" s="37" t="str">
+      <c r="D21" s="36" t="str">
         <f>IF(SUM(J21:AC21)=0," ",SUM(J21:AC21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="44">
         <v>3</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="166"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="166"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="178"/>
-      <c r="Y21" s="179"/>
-      <c r="Z21" s="175"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="81"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="80"/>
     </row>
     <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="72">
+      <c r="A22" s="71">
         <v>37</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="45">
         <v>9</v>
       </c>
-      <c r="D22" s="37" t="str">
+      <c r="D22" s="36" t="str">
         <f t="shared" ref="D22:D25" si="2">IF(SUM(J22:AC22)=0," ",SUM(J22:AC22))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="44">
         <v>1</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="167"/>
-      <c r="O22" s="174"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="166"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="166"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="178"/>
-      <c r="Y22" s="179"/>
-      <c r="Z22" s="175"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="81"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="150"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="147"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="80"/>
     </row>
     <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="72">
+      <c r="A23" s="71">
         <v>38</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="45">
         <v>7</v>
       </c>
-      <c r="D23" s="37" t="str">
+      <c r="D23" s="36" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="44">
         <v>1</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="167"/>
-      <c r="O23" s="174"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="176"/>
-      <c r="T23" s="177"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="166"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="179"/>
-      <c r="Z23" s="175"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="37"/>
-      <c r="AC23" s="81"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="150"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="158"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="158"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="160"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="80"/>
     </row>
     <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="72">
+      <c r="A24" s="71">
         <v>39</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="45">
         <v>5</v>
       </c>
-      <c r="D24" s="37" t="str">
+      <c r="D24" s="36" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="44">
         <v>3</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="167"/>
-      <c r="O24" s="174"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="166"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="176"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="166"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="149"/>
-      <c r="Z24" s="175"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="81"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="157"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="159"/>
+      <c r="T24" s="160"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="156"/>
+      <c r="X24" s="147"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="80"/>
     </row>
     <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72">
+      <c r="A25" s="71">
         <v>40</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="45">
         <v>2</v>
       </c>
-      <c r="D25" s="37" t="str">
+      <c r="D25" s="36" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="44">
         <v>3</v>
       </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="167"/>
-      <c r="O25" s="174"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="178"/>
-      <c r="Y25" s="149"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="50"/>
-      <c r="AB25" s="37"/>
-      <c r="AC25" s="81"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="157"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="159"/>
+      <c r="T25" s="160"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="156"/>
+      <c r="X25" s="161"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="49"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="80"/>
     </row>
     <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91">
+      <c r="A26" s="90">
         <v>50</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="93">
         <f>SUM(C27)</f>
         <v>26</v>
       </c>
-      <c r="D26" s="95">
+      <c r="D26" s="94">
         <f>SUM(D27)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="96"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="93"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="104"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="101"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="103"/>
     </row>
     <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73">
+      <c r="A27" s="72">
         <v>51</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="58">
         <f>SUM(C5,C11,C15)*0.5</f>
         <v>26</v>
       </c>
-      <c r="D27" s="67" t="str">
+      <c r="D27" s="66" t="str">
         <f>IF(SUM(J27:AC27)=0," ",SUM(J27:AC27))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="63">
         <v>3</v>
       </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="80"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="68"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="79"/>
     </row>
     <row r="28" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="90"/>
-      <c r="B28" s="109" t="s">
+      <c r="A28" s="89"/>
+      <c r="B28" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="110">
+      <c r="C28" s="109">
         <f>SUM(C5,C11,C15,C26)</f>
         <v>78</v>
       </c>
-      <c r="D28" s="110" t="str">
+      <c r="D28" s="109" t="str">
         <f>IF(SUM(J28:AC28)=0," ",SUM(J28:AC28))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113">
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="112">
         <f t="shared" ref="J28:AC28" si="3">SUM(J5:J27)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="110">
+      <c r="K28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="114">
+      <c r="L28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M28" s="114">
+      <c r="M28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="114">
+      <c r="N28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="114">
+      <c r="O28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P28" s="110">
+      <c r="P28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="114">
+      <c r="Q28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="110">
+      <c r="R28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S28" s="114">
+      <c r="S28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T28" s="114">
+      <c r="T28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28" s="110">
+      <c r="U28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="114">
+      <c r="V28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W28" s="110">
+      <c r="W28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="114">
+      <c r="X28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="114">
+      <c r="Y28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="110">
+      <c r="Z28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="114">
+      <c r="AA28" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="110">
+      <c r="AB28" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="115">
+      <c r="AC28" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="116"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
     </row>
     <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="119"/>
+      <c r="A30" s="118"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
       </c>
@@ -4167,30 +4184,32 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="152"/>
-      <c r="Y30" s="152"/>
-      <c r="Z30" s="152"/>
-      <c r="AA30" s="152"/>
-      <c r="AB30" s="152"/>
-      <c r="AC30" s="152"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="166"/>
+      <c r="Q30" s="166"/>
+      <c r="R30" s="166"/>
+      <c r="S30" s="166"/>
+      <c r="T30" s="166"/>
+      <c r="U30" s="166"/>
+      <c r="V30" s="166"/>
+      <c r="W30" s="166"/>
+      <c r="X30" s="166"/>
+      <c r="Y30" s="166"/>
+      <c r="Z30" s="166"/>
+      <c r="AA30" s="166"/>
+      <c r="AB30" s="166"/>
+      <c r="AC30" s="166"/>
     </row>
     <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
       <c r="E31" s="18"/>
@@ -4198,26 +4217,26 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
-      <c r="N31" s="150"/>
-      <c r="O31" s="150"/>
-      <c r="P31" s="150"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="150"/>
-      <c r="U31" s="150"/>
-      <c r="V31" s="150"/>
-      <c r="W31" s="150"/>
-      <c r="X31" s="150"/>
-      <c r="Y31" s="150"/>
-      <c r="Z31" s="150"/>
-      <c r="AA31" s="150"/>
-      <c r="AB31" s="150"/>
-      <c r="AC31" s="150"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="164"/>
+      <c r="L31" s="164"/>
+      <c r="M31" s="164"/>
+      <c r="N31" s="164"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="164"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="164"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="164"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="164"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="164"/>
     </row>
     <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
@@ -4229,26 +4248,26 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="150"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="150"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="150"/>
-      <c r="U32" s="150"/>
-      <c r="V32" s="150"/>
-      <c r="W32" s="150"/>
-      <c r="X32" s="150"/>
-      <c r="Y32" s="150"/>
-      <c r="Z32" s="150"/>
-      <c r="AA32" s="150"/>
-      <c r="AB32" s="150"/>
-      <c r="AC32" s="150"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="164"/>
+      <c r="N32" s="164"/>
+      <c r="O32" s="164"/>
+      <c r="P32" s="164"/>
+      <c r="Q32" s="164"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="164"/>
+      <c r="U32" s="164"/>
+      <c r="V32" s="164"/>
+      <c r="W32" s="164"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="164"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
@@ -4319,21 +4338,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="161"/>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
+      <c r="A1" s="175"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -4639,10 +4658,10 @@
     <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
@@ -4651,10 +4670,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="160"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>15</v>
@@ -4665,10 +4684,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="165"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
@@ -4679,10 +4698,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159" t="s">
+      <c r="A30" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="160"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>36</v>
@@ -4693,10 +4712,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="165"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4707,10 +4726,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="160"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C26</f>
         <v>26</v>
@@ -4721,10 +4740,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="159" t="s">
+      <c r="A33" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="160"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1916,6 +1916,12 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1960,12 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2902,63 +2902,63 @@
   </sheetPr>
   <dimension ref="A1:AM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30:AC30"/>
+      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="44.19921875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="5" style="9" customWidth="1"/>
     <col min="4" max="4" width="5" style="21" customWidth="1"/>
     <col min="5" max="5" width="5" style="9" customWidth="1"/>
-    <col min="6" max="7" width="3.09765625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="7.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.19921875" style="22" customWidth="1"/>
-    <col min="10" max="29" width="3.09765625" style="9" customWidth="1"/>
-    <col min="30" max="30" width="4.19921875" style="8" customWidth="1"/>
+    <col min="6" max="7" width="3.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="22" customWidth="1"/>
+    <col min="10" max="29" width="3.125" style="9" customWidth="1"/>
+    <col min="30" max="30" width="4.25" style="8" customWidth="1"/>
     <col min="31" max="39" width="12.5" style="8" customWidth="1"/>
     <col min="40" max="16384" width="12.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:33" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-    </row>
-    <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+    </row>
+    <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2969,52 +2969,52 @@
       <c r="H2" s="8"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="172"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="169" t="s">
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="169" t="s">
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="169" t="s">
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="171"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="173"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
     </row>
-    <row r="4" spans="1:33" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="105" t="s">
         <v>0</v>
       </c>
@@ -3067,11 +3067,11 @@
         <f>P4+1</f>
         <v>42711</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="164">
         <f>Q4+1</f>
         <v>42712</v>
       </c>
-      <c r="S4" s="180">
+      <c r="S4" s="164">
         <f>R4+1</f>
         <v>42713</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>42727</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="90">
         <v>10</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="AB5" s="102"/>
       <c r="AC5" s="103"/>
     </row>
-    <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="70">
         <v>11</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="AB6" s="41"/>
       <c r="AC6" s="77"/>
     </row>
-    <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <v>12</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="AB7" s="49"/>
       <c r="AC7" s="79"/>
     </row>
-    <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="70">
         <v>13</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70">
         <v>14</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="AB9" s="36"/>
       <c r="AC9" s="80"/>
     </row>
-    <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70">
         <v>15</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="AB10" s="133"/>
       <c r="AC10" s="134"/>
     </row>
-    <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90">
         <v>20</v>
       </c>
@@ -3412,7 +3412,7 @@
       <c r="AB11" s="102"/>
       <c r="AC11" s="103"/>
     </row>
-    <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>21</v>
       </c>
@@ -3453,7 +3453,7 @@
       <c r="AB12" s="60"/>
       <c r="AC12" s="82"/>
     </row>
-    <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>22</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="AB13" s="60"/>
       <c r="AC13" s="82"/>
     </row>
-    <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>23</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="AB14" s="60"/>
       <c r="AC14" s="82"/>
     </row>
-    <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="90">
         <v>30</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="AB15" s="102"/>
       <c r="AC15" s="103"/>
     </row>
-    <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>31</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="AB16" s="60"/>
       <c r="AC16" s="82"/>
     </row>
-    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>32</v>
       </c>
@@ -3651,7 +3651,7 @@
       <c r="AB17" s="60"/>
       <c r="AC17" s="82"/>
     </row>
-    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>33</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="AB18" s="60"/>
       <c r="AC18" s="82"/>
     </row>
-    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>34</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="AB19" s="60"/>
       <c r="AC19" s="82"/>
     </row>
-    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>35</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="AB20" s="60"/>
       <c r="AC20" s="82"/>
     </row>
-    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>36</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="AB21" s="36"/>
       <c r="AC21" s="80"/>
     </row>
-    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>37</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="AB22" s="36"/>
       <c r="AC22" s="80"/>
     </row>
-    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71">
         <v>38</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="AB23" s="36"/>
       <c r="AC23" s="80"/>
     </row>
-    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71">
         <v>39</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="AB24" s="36"/>
       <c r="AC24" s="80"/>
     </row>
-    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71">
         <v>40</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="AB25" s="36"/>
       <c r="AC25" s="80"/>
     </row>
-    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="90">
         <v>50</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="AB26" s="102"/>
       <c r="AC26" s="103"/>
     </row>
-    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="72">
         <v>51</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="AB27" s="65"/>
       <c r="AC27" s="79"/>
     </row>
-    <row r="28" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89"/>
       <c r="B28" s="108" t="s">
         <v>7</v>
@@ -4161,18 +4161,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="115"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-    </row>
-    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+    </row>
+    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="118"/>
       <c r="B30" s="15" t="s">
         <v>22</v>
@@ -4184,29 +4184,29 @@
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="166"/>
-      <c r="Q30" s="166"/>
-      <c r="R30" s="166"/>
-      <c r="S30" s="166"/>
-      <c r="T30" s="166"/>
-      <c r="U30" s="166"/>
-      <c r="V30" s="166"/>
-      <c r="W30" s="166"/>
-      <c r="X30" s="166"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="166"/>
-      <c r="AA30" s="166"/>
-      <c r="AB30" s="166"/>
-      <c r="AC30" s="166"/>
-    </row>
-    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="168"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="168"/>
+      <c r="W30" s="168"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="168"/>
+    </row>
+    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="165"/>
       <c r="B31" s="14" t="s">
         <v>48</v>
       </c>
@@ -4217,28 +4217,28 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="164"/>
-      <c r="L31" s="164"/>
-      <c r="M31" s="164"/>
-      <c r="N31" s="164"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="164"/>
-      <c r="R31" s="164"/>
-      <c r="S31" s="164"/>
-      <c r="T31" s="164"/>
-      <c r="U31" s="164"/>
-      <c r="V31" s="164"/>
-      <c r="W31" s="164"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="164"/>
-      <c r="Z31" s="164"/>
-      <c r="AA31" s="164"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="164"/>
-    </row>
-    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="166"/>
+      <c r="Q31" s="166"/>
+      <c r="R31" s="166"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="166"/>
+      <c r="U31" s="166"/>
+      <c r="V31" s="166"/>
+      <c r="W31" s="166"/>
+      <c r="X31" s="166"/>
+      <c r="Y31" s="166"/>
+      <c r="Z31" s="166"/>
+      <c r="AA31" s="166"/>
+      <c r="AB31" s="166"/>
+      <c r="AC31" s="166"/>
+    </row>
+    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="14"/>
       <c r="C32" s="18"/>
@@ -4248,49 +4248,49 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="J32" s="164"/>
-      <c r="K32" s="164"/>
-      <c r="L32" s="164"/>
-      <c r="M32" s="164"/>
-      <c r="N32" s="164"/>
-      <c r="O32" s="164"/>
-      <c r="P32" s="164"/>
-      <c r="Q32" s="164"/>
-      <c r="R32" s="164"/>
-      <c r="S32" s="164"/>
-      <c r="T32" s="164"/>
-      <c r="U32" s="164"/>
-      <c r="V32" s="164"/>
-      <c r="W32" s="164"/>
-      <c r="X32" s="164"/>
-      <c r="Y32" s="164"/>
-      <c r="Z32" s="164"/>
-      <c r="AA32" s="164"/>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="164"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="166"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="166"/>
+      <c r="V32" s="166"/>
+      <c r="W32" s="166"/>
+      <c r="X32" s="166"/>
+      <c r="Y32" s="166"/>
+      <c r="Z32" s="166"/>
+      <c r="AA32" s="166"/>
+      <c r="AB32" s="166"/>
+      <c r="AC32" s="166"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="18"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="18"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="18"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="20"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38" s="9"/>
     </row>
   </sheetData>
@@ -4328,33 +4328,33 @@
       <selection activeCell="A30" sqref="A30:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="175"/>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4371,7 +4371,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.4</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.5</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>1</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>0</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>0</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -4655,13 +4655,13 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:4" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="176" t="s">
+    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="177"/>
+      <c r="B27" s="179"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
@@ -4669,11 +4669,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="173" t="s">
+    <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="174"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>15</v>
@@ -4683,11 +4683,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
+    <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="179"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
@@ -4697,11 +4697,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="173" t="s">
+    <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="174"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>36</v>
@@ -4711,11 +4711,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="178" t="s">
+    <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="179"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4725,11 +4725,11 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="173" t="s">
+    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="174"/>
+      <c r="B32" s="176"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C26</f>
         <v>26</v>
@@ -4739,11 +4739,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="173" t="s">
+    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="174"/>
+      <c r="B33" s="176"/>
       <c r="C33" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4753,7 +4753,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.6" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A32:B32"/>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -2387,7 +2387,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2903,10 +2903,10 @@
   <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S20" sqref="S20"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D15" s="94">
         <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E15" s="95"/>
       <c r="F15" s="96"/>
@@ -3580,9 +3580,8 @@
       <c r="C16" s="35">
         <v>6</v>
       </c>
-      <c r="D16" s="60" t="str">
-        <f>IF(SUM(J16:AC16)=0," ",SUM(J16:AC16))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D16" s="60">
+        <v>8</v>
       </c>
       <c r="E16" s="34">
         <v>1</v>
@@ -3622,7 +3621,9 @@
       <c r="C17" s="35">
         <v>6</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="60">
+        <v>6</v>
+      </c>
       <c r="E17" s="34">
         <v>1</v>
       </c>
@@ -4708,7 +4709,7 @@
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Nr.</t>
   </si>
@@ -282,6 +282,21 @@
   </si>
   <si>
     <t>Ferien</t>
+  </si>
+  <si>
+    <t>F.REQ.007</t>
+  </si>
+  <si>
+    <t>F.REQ.008</t>
+  </si>
+  <si>
+    <t>F.REQ.009</t>
+  </si>
+  <si>
+    <t>F.REQ.010</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +497,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="77">
     <border>
@@ -1435,7 +1474,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1907,12 +1946,6 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,6 +1999,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2307,19 +2364,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2384,7 +2441,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -2900,13 +2957,13 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AM38"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2926,37 +2983,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
     </row>
     <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -2972,43 +3029,43 @@
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="172" t="s">
+      <c r="C3" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="172"/>
+      <c r="D3" s="170"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="172" t="s">
+      <c r="J3" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="171" t="s">
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="171" t="s">
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="171" t="s">
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="173"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="171"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
@@ -3067,11 +3124,11 @@
         <f>P4+1</f>
         <v>42711</v>
       </c>
-      <c r="R4" s="164">
+      <c r="R4" s="162">
         <f>Q4+1</f>
         <v>42712</v>
       </c>
-      <c r="S4" s="164">
+      <c r="S4" s="162">
         <f>R4+1</f>
         <v>42713</v>
       </c>
@@ -3125,7 +3182,7 @@
       </c>
       <c r="C5" s="93">
         <f>SUM(C6:C10)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="94">
         <f>SUM(D6:D10)</f>
@@ -3175,7 +3232,7 @@
       <c r="G6" s="61"/>
       <c r="H6" s="37"/>
       <c r="I6" s="86" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J6" s="122"/>
       <c r="K6" s="39"/>
@@ -3262,7 +3319,9 @@
       <c r="F8" s="35"/>
       <c r="G8" s="61"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="87"/>
+      <c r="I8" s="87" t="s">
+        <v>37</v>
+      </c>
       <c r="J8" s="122"/>
       <c r="K8" s="123"/>
       <c r="L8" s="135"/>
@@ -3295,7 +3354,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="36" t="str">
         <f t="shared" si="0"/>
@@ -3312,7 +3371,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="47"/>
       <c r="M9" s="47"/>
-      <c r="N9" s="62"/>
+      <c r="N9" s="136"/>
       <c r="O9" s="48"/>
       <c r="P9" s="49"/>
       <c r="Q9" s="39"/>
@@ -3384,7 +3443,7 @@
       </c>
       <c r="D11" s="93">
         <f>SUM(D12:D14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="95"/>
       <c r="F11" s="96"/>
@@ -3423,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="35"/>
@@ -3537,8 +3596,8 @@
         <v>11</v>
       </c>
       <c r="C15" s="93">
-        <f>SUM(C16:C21)</f>
-        <v>36</v>
+        <f>SUM(C16:C29)</f>
+        <v>152</v>
       </c>
       <c r="D15" s="94">
         <f>SUM(D16:D21)</f>
@@ -3578,7 +3637,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="35">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="60">
         <v>8</v>
@@ -3589,11 +3648,13 @@
       <c r="F16" s="35"/>
       <c r="G16" s="61"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="87"/>
+      <c r="I16" s="87" t="s">
+        <v>53</v>
+      </c>
       <c r="J16" s="61"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
-      <c r="M16" s="163"/>
+      <c r="M16" s="161"/>
       <c r="N16" s="150"/>
       <c r="O16" s="151"/>
       <c r="P16" s="152"/>
@@ -3619,23 +3680,25 @@
         <v>39</v>
       </c>
       <c r="C17" s="35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="60">
         <v>6</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="183">
         <v>1</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="61"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="87"/>
+      <c r="I17" s="87" t="s">
+        <v>53</v>
+      </c>
       <c r="J17" s="61"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="123"/>
-      <c r="N17" s="136"/>
+      <c r="N17" s="150"/>
       <c r="O17" s="151"/>
       <c r="P17" s="152"/>
       <c r="Q17" s="149"/>
@@ -3660,22 +3723,24 @@
         <v>40</v>
       </c>
       <c r="C18" s="35">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="34">
+      <c r="E18" s="183">
         <v>1</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="61"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="87"/>
+      <c r="I18" s="87" t="s">
+        <v>37</v>
+      </c>
       <c r="J18" s="61"/>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
       <c r="M18" s="149"/>
       <c r="N18" s="136"/>
-      <c r="O18" s="145"/>
+      <c r="O18" s="151"/>
       <c r="P18" s="152"/>
       <c r="Q18" s="149"/>
       <c r="R18" s="152"/>
@@ -3699,10 +3764,10 @@
         <v>41</v>
       </c>
       <c r="C19" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19" s="60"/>
-      <c r="E19" s="34">
+      <c r="E19" s="183">
         <v>1</v>
       </c>
       <c r="F19" s="35"/>
@@ -3717,7 +3782,7 @@
       <c r="O19" s="145"/>
       <c r="P19" s="152"/>
       <c r="Q19" s="149"/>
-      <c r="R19" s="146"/>
+      <c r="R19" s="152"/>
       <c r="S19" s="153"/>
       <c r="T19" s="154"/>
       <c r="U19" s="149"/>
@@ -3738,10 +3803,10 @@
         <v>42</v>
       </c>
       <c r="C20" s="35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" s="60"/>
-      <c r="E20" s="34">
+      <c r="E20" s="183">
         <v>1</v>
       </c>
       <c r="F20" s="35"/>
@@ -3754,9 +3819,9 @@
       <c r="M20" s="149"/>
       <c r="N20" s="150"/>
       <c r="O20" s="145"/>
-      <c r="P20" s="152"/>
+      <c r="P20" s="146"/>
       <c r="Q20" s="149"/>
-      <c r="R20" s="146"/>
+      <c r="R20" s="152"/>
       <c r="S20" s="153"/>
       <c r="T20" s="154"/>
       <c r="U20" s="149"/>
@@ -3777,14 +3842,14 @@
         <v>43</v>
       </c>
       <c r="C21" s="45">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="36" t="str">
         <f>IF(SUM(J21:AC21)=0," ",SUM(J21:AC21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="44">
-        <v>3</v>
+      <c r="E21" s="184">
+        <v>1</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="61"/>
@@ -3796,17 +3861,17 @@
       <c r="M21" s="156"/>
       <c r="N21" s="150"/>
       <c r="O21" s="157"/>
-      <c r="P21" s="158"/>
+      <c r="P21" s="138"/>
       <c r="Q21" s="149"/>
       <c r="R21" s="158"/>
       <c r="S21" s="159"/>
       <c r="T21" s="143"/>
       <c r="U21" s="156"/>
-      <c r="V21" s="149"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="158"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="180"/>
+      <c r="Z21" s="49"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="36"/>
       <c r="AC21" s="80"/>
@@ -3816,17 +3881,14 @@
         <v>37</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C22" s="45">
-        <v>9</v>
-      </c>
-      <c r="D22" s="36" t="str">
-        <f t="shared" ref="D22:D25" si="2">IF(SUM(J22:AC22)=0," ",SUM(J22:AC22))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E22" s="44">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="182">
+        <v>2</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="61"/>
@@ -3835,20 +3897,20 @@
       <c r="J22" s="54"/>
       <c r="K22" s="47"/>
       <c r="L22" s="47"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="150"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="159"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="50"/>
       <c r="T22" s="143"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="149"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="39"/>
       <c r="W22" s="135"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="158"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="180"/>
+      <c r="Z22" s="49"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="36"/>
       <c r="AC22" s="80"/>
@@ -3858,17 +3920,14 @@
         <v>38</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C23" s="45">
-        <v>7</v>
-      </c>
-      <c r="D23" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E23" s="44">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="182">
+        <v>2</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="61"/>
@@ -3877,20 +3936,20 @@
       <c r="J23" s="54"/>
       <c r="K23" s="47"/>
       <c r="L23" s="47"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="158"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="156"/>
-      <c r="V23" s="149"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="39"/>
       <c r="W23" s="135"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="158"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="180"/>
+      <c r="Z23" s="49"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="36"/>
       <c r="AC23" s="80"/>
@@ -3900,17 +3959,14 @@
         <v>39</v>
       </c>
       <c r="B24" s="83" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C24" s="45">
-        <v>5</v>
-      </c>
-      <c r="D24" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E24" s="44">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="182">
+        <v>2</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="61"/>
@@ -3919,20 +3975,20 @@
       <c r="J24" s="54"/>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="158"/>
-      <c r="Q24" s="149"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="159"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="149"/>
-      <c r="W24" s="156"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="47"/>
       <c r="X24" s="147"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="158"/>
+      <c r="Y24" s="180"/>
+      <c r="Z24" s="49"/>
       <c r="AA24" s="49"/>
       <c r="AB24" s="36"/>
       <c r="AC24" s="80"/>
@@ -3942,16 +3998,13 @@
         <v>40</v>
       </c>
       <c r="B25" s="83" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" s="45">
-        <v>2</v>
-      </c>
-      <c r="D25" s="36" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E25" s="44">
+        <v>6</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="181">
         <v>3</v>
       </c>
       <c r="F25" s="35"/>
@@ -3961,344 +4014,512 @@
       <c r="J25" s="54"/>
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="149"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="159"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="149"/>
-      <c r="W25" s="156"/>
-      <c r="X25" s="161"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="45"/>
       <c r="Y25" s="148"/>
-      <c r="Z25" s="158"/>
+      <c r="Z25" s="49"/>
       <c r="AA25" s="49"/>
       <c r="AB25" s="36"/>
       <c r="AC25" s="80"/>
     </row>
     <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90">
-        <v>50</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="93">
-        <f>SUM(C27)</f>
-        <v>26</v>
-      </c>
-      <c r="D26" s="94">
-        <f>SUM(D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="101"/>
-      <c r="AA26" s="101"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="103"/>
+      <c r="A26" s="71">
+        <v>41</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="45">
+        <v>12</v>
+      </c>
+      <c r="D26" s="36" t="str">
+        <f t="shared" ref="D26:D29" si="2">IF(SUM(J26:AC26)=0," ",SUM(J26:AC26))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" s="184">
+        <v>1</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="150"/>
+      <c r="O26" s="157"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="158"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="186"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="80"/>
     </row>
     <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
-        <v>51</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="58">
-        <f>SUM(C5,C11,C15)*0.5</f>
-        <v>26</v>
-      </c>
-      <c r="D27" s="66" t="str">
-        <f>IF(SUM(J27:AC27)=0," ",SUM(J27:AC27))</f>
+      <c r="A27" s="71">
+        <v>42</v>
+      </c>
+      <c r="B27" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="45">
+        <v>12</v>
+      </c>
+      <c r="D27" s="36" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="63">
-        <v>3</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="67"/>
+      <c r="E27" s="184">
+        <v>1</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="61"/>
       <c r="H27" s="37"/>
       <c r="I27" s="87"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="68"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="79"/>
-    </row>
-    <row r="28" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="108" t="s">
+      <c r="J27" s="54"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="150"/>
+      <c r="O27" s="157"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="160"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="180"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="143"/>
+      <c r="AC27" s="134"/>
+    </row>
+    <row r="28" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="71">
+        <v>43</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="45">
+        <v>8</v>
+      </c>
+      <c r="D28" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E28" s="181">
+        <v>3</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="157"/>
+      <c r="P28" s="158"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="158"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="180"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="187"/>
+    </row>
+    <row r="29" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="71">
+        <v>44</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="45">
+        <v>8</v>
+      </c>
+      <c r="D29" s="36" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E29" s="181">
+        <v>3</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="150"/>
+      <c r="O29" s="157"/>
+      <c r="P29" s="158"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="160"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
+      <c r="AB29" s="185"/>
+      <c r="AC29" s="187"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="90">
+        <v>50</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="93">
+        <f>SUM(C31)</f>
+        <v>34</v>
+      </c>
+      <c r="D30" s="94">
+        <f>SUM(D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="103"/>
+    </row>
+    <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
+        <v>51</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="58">
+        <f>SUM(C5,C11,C15)*0.2</f>
+        <v>34</v>
+      </c>
+      <c r="D31" s="66" t="str">
+        <f>IF(SUM(J31:AC31)=0," ",SUM(J31:AC31))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E31" s="63">
+        <v>3</v>
+      </c>
+      <c r="F31" s="58"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="79"/>
+    </row>
+    <row r="32" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="89"/>
+      <c r="B32" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="109">
-        <f>SUM(C5,C11,C15,C26)</f>
-        <v>78</v>
-      </c>
-      <c r="D28" s="109" t="str">
-        <f>IF(SUM(J28:AC28)=0," ",SUM(J28:AC28))</f>
+      <c r="C32" s="109">
+        <f>SUM(C5,C11,C15,C30)</f>
+        <v>204</v>
+      </c>
+      <c r="D32" s="109" t="str">
+        <f>IF(SUM(J32:AC32)=0," ",SUM(J32:AC32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="112">
-        <f t="shared" ref="J28:AC28" si="3">SUM(J5:J27)</f>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112">
+        <f t="shared" ref="J32:AC32" si="3">SUM(J5:J31)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="109">
+      <c r="K32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="113">
+      <c r="L32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M28" s="113">
+      <c r="M32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="113">
+      <c r="N32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O28" s="113">
+      <c r="O32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P28" s="109">
+      <c r="P32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="113">
+      <c r="Q32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="109">
+      <c r="R32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S28" s="113">
+      <c r="S32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T28" s="113">
+      <c r="T32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28" s="109">
+      <c r="U32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="113">
+      <c r="V32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W28" s="109">
+      <c r="W32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="113">
+      <c r="X32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="113">
+      <c r="Y32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="109">
+      <c r="Z32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="113">
+      <c r="AA32" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="109">
+      <c r="AB32" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="114">
+      <c r="AC32" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-    </row>
-    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="118"/>
-      <c r="B30" s="15" t="s">
+    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="115"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+    </row>
+    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="118"/>
+      <c r="B34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="168"/>
-      <c r="Q30" s="168"/>
-      <c r="R30" s="168"/>
-      <c r="S30" s="168"/>
-      <c r="T30" s="168"/>
-      <c r="U30" s="168"/>
-      <c r="V30" s="168"/>
-      <c r="W30" s="168"/>
-      <c r="X30" s="168"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AB30" s="168"/>
-      <c r="AC30" s="168"/>
-    </row>
-    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="165"/>
-      <c r="B31" s="14" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="165"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="166"/>
+      <c r="N34" s="166"/>
+      <c r="O34" s="166"/>
+      <c r="P34" s="166"/>
+      <c r="Q34" s="166"/>
+      <c r="R34" s="166"/>
+      <c r="S34" s="166"/>
+      <c r="T34" s="166"/>
+      <c r="U34" s="166"/>
+      <c r="V34" s="166"/>
+      <c r="W34" s="166"/>
+      <c r="X34" s="166"/>
+      <c r="Y34" s="166"/>
+      <c r="Z34" s="166"/>
+      <c r="AA34" s="166"/>
+      <c r="AB34" s="166"/>
+      <c r="AC34" s="166"/>
+    </row>
+    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="163"/>
+      <c r="B35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="166"/>
-      <c r="Q31" s="166"/>
-      <c r="R31" s="166"/>
-      <c r="S31" s="166"/>
-      <c r="T31" s="166"/>
-      <c r="U31" s="166"/>
-      <c r="V31" s="166"/>
-      <c r="W31" s="166"/>
-      <c r="X31" s="166"/>
-      <c r="Y31" s="166"/>
-      <c r="Z31" s="166"/>
-      <c r="AA31" s="166"/>
-      <c r="AB31" s="166"/>
-      <c r="AC31" s="166"/>
-    </row>
-    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="166"/>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="166"/>
-      <c r="V32" s="166"/>
-      <c r="W32" s="166"/>
-      <c r="X32" s="166"/>
-      <c r="Y32" s="166"/>
-      <c r="Z32" s="166"/>
-      <c r="AA32" s="166"/>
-      <c r="AB32" s="166"/>
-      <c r="AC32" s="166"/>
-    </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="18"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="20"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="19"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="164"/>
+      <c r="P35" s="164"/>
+      <c r="Q35" s="164"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="164"/>
+      <c r="T35" s="164"/>
+      <c r="U35" s="164"/>
+      <c r="V35" s="164"/>
+      <c r="W35" s="164"/>
+      <c r="X35" s="164"/>
+      <c r="Y35" s="164"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="164"/>
+      <c r="AB35" s="164"/>
+      <c r="AC35" s="164"/>
+    </row>
+    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="164"/>
+      <c r="L36" s="164"/>
+      <c r="M36" s="164"/>
+      <c r="N36" s="164"/>
+      <c r="O36" s="164"/>
+      <c r="P36" s="164"/>
+      <c r="Q36" s="164"/>
+      <c r="R36" s="164"/>
+      <c r="S36" s="164"/>
+      <c r="T36" s="164"/>
+      <c r="U36" s="164"/>
+      <c r="V36" s="164"/>
+      <c r="W36" s="164"/>
+      <c r="X36" s="164"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164"/>
+      <c r="AA36" s="164"/>
+      <c r="AB36" s="164"/>
+      <c r="AC36" s="164"/>
+    </row>
+    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
       <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="18"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="J31:AC32"/>
-    <mergeCell ref="J30:AC30"/>
-    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="J35:AC36"/>
+    <mergeCell ref="J34:AC34"/>
+    <mergeCell ref="B33:I33"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="Y3:AC3"/>
@@ -4326,7 +4547,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:B30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4339,21 +4560,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="177"/>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="177"/>
+      <c r="A1" s="175"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4392,7 +4613,7 @@
         <v>42702</v>
       </c>
       <c r="C4" s="5">
-        <f>'IPA Zeitplanung'!J28</f>
+        <f>'IPA Zeitplanung'!J32</f>
         <v>0</v>
       </c>
     </row>
@@ -4405,7 +4626,7 @@
         <v>42703</v>
       </c>
       <c r="C5" s="5">
-        <f>'IPA Zeitplanung'!K28</f>
+        <f>'IPA Zeitplanung'!K32</f>
         <v>0</v>
       </c>
     </row>
@@ -4418,7 +4639,7 @@
         <v>42704</v>
       </c>
       <c r="C6" s="5">
-        <f>'IPA Zeitplanung'!L28</f>
+        <f>'IPA Zeitplanung'!L32</f>
         <v>0</v>
       </c>
     </row>
@@ -4431,7 +4652,7 @@
         <v>42705</v>
       </c>
       <c r="C7" s="5">
-        <f>'IPA Zeitplanung'!M28</f>
+        <f>'IPA Zeitplanung'!M32</f>
         <v>0</v>
       </c>
     </row>
@@ -4444,7 +4665,7 @@
         <v>42706</v>
       </c>
       <c r="C8" s="5">
-        <f>'IPA Zeitplanung'!N28</f>
+        <f>'IPA Zeitplanung'!N32</f>
         <v>0</v>
       </c>
     </row>
@@ -4457,7 +4678,7 @@
         <v>42709</v>
       </c>
       <c r="C9" s="5">
-        <f>'IPA Zeitplanung'!O28</f>
+        <f>'IPA Zeitplanung'!O32</f>
         <v>0</v>
       </c>
     </row>
@@ -4470,7 +4691,7 @@
         <v>42710</v>
       </c>
       <c r="C10" s="5">
-        <f>'IPA Zeitplanung'!P28</f>
+        <f>'IPA Zeitplanung'!P32</f>
         <v>0</v>
       </c>
     </row>
@@ -4483,7 +4704,7 @@
         <v>42711</v>
       </c>
       <c r="C11" s="5">
-        <f>'IPA Zeitplanung'!Q28</f>
+        <f>'IPA Zeitplanung'!Q32</f>
         <v>0</v>
       </c>
     </row>
@@ -4496,7 +4717,7 @@
         <v>42712</v>
       </c>
       <c r="C12" s="5">
-        <f>'IPA Zeitplanung'!R28</f>
+        <f>'IPA Zeitplanung'!R32</f>
         <v>0</v>
       </c>
     </row>
@@ -4509,7 +4730,7 @@
         <v>42713</v>
       </c>
       <c r="C13" s="5">
-        <f>'IPA Zeitplanung'!S28</f>
+        <f>'IPA Zeitplanung'!S32</f>
         <v>0</v>
       </c>
     </row>
@@ -4522,7 +4743,7 @@
         <v>42716</v>
       </c>
       <c r="C14" s="5">
-        <f>'IPA Zeitplanung'!T28</f>
+        <f>'IPA Zeitplanung'!T32</f>
         <v>0</v>
       </c>
     </row>
@@ -4535,7 +4756,7 @@
         <v>42717</v>
       </c>
       <c r="C15" s="5">
-        <f>'IPA Zeitplanung'!U28</f>
+        <f>'IPA Zeitplanung'!U32</f>
         <v>0</v>
       </c>
     </row>
@@ -4548,7 +4769,7 @@
         <v>42718</v>
       </c>
       <c r="C16" s="5">
-        <f>'IPA Zeitplanung'!V28</f>
+        <f>'IPA Zeitplanung'!V32</f>
         <v>0</v>
       </c>
     </row>
@@ -4561,7 +4782,7 @@
         <v>42719</v>
       </c>
       <c r="C17" s="5">
-        <f>'IPA Zeitplanung'!W28</f>
+        <f>'IPA Zeitplanung'!W32</f>
         <v>0</v>
       </c>
     </row>
@@ -4574,7 +4795,7 @@
         <v>42720</v>
       </c>
       <c r="C18" s="5">
-        <f>'IPA Zeitplanung'!X28</f>
+        <f>'IPA Zeitplanung'!X32</f>
         <v>0</v>
       </c>
     </row>
@@ -4587,7 +4808,7 @@
         <v>42723</v>
       </c>
       <c r="C19" s="5">
-        <f>'IPA Zeitplanung'!Y28</f>
+        <f>'IPA Zeitplanung'!Y32</f>
         <v>0</v>
       </c>
     </row>
@@ -4600,7 +4821,7 @@
         <v>42724</v>
       </c>
       <c r="C20" s="5">
-        <f>'IPA Zeitplanung'!Z28</f>
+        <f>'IPA Zeitplanung'!Z32</f>
         <v>0</v>
       </c>
     </row>
@@ -4613,7 +4834,7 @@
         <v>42725</v>
       </c>
       <c r="C21" s="5">
-        <f>'IPA Zeitplanung'!AA28</f>
+        <f>'IPA Zeitplanung'!AA32</f>
         <v>0</v>
       </c>
     </row>
@@ -4626,7 +4847,7 @@
         <v>42726</v>
       </c>
       <c r="C22" s="5">
-        <f>'IPA Zeitplanung'!AB28</f>
+        <f>'IPA Zeitplanung'!AB32</f>
         <v>0</v>
       </c>
     </row>
@@ -4639,7 +4860,7 @@
         <v>42727</v>
       </c>
       <c r="C23" s="5">
-        <f>'IPA Zeitplanung'!AC28</f>
+        <f>'IPA Zeitplanung'!AC32</f>
         <v>0</v>
       </c>
     </row>
@@ -4659,10 +4880,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="179"/>
+      <c r="B27" s="177"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
@@ -4671,13 +4892,13 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="175" t="s">
+      <c r="A28" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="176"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
@@ -4685,27 +4906,27 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="181"/>
+      <c r="B29" s="179"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
       </c>
       <c r="D29" s="5">
         <f>'IPA Zeitplanung'!D11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="176"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
@@ -4713,10 +4934,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="181"/>
+      <c r="B31" s="179"/>
       <c r="C31" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4727,24 +4948,24 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="175" t="s">
+      <c r="A32" s="173" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="176"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="5">
-        <f>'IPA Zeitplanung'!C26</f>
-        <v>26</v>
+        <f>'IPA Zeitplanung'!C30</f>
+        <v>34</v>
       </c>
       <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D26)</f>
+        <f>SUM('IPA Zeitplanung'!D30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="176"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -1955,6 +1955,27 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1999,28 +2020,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2960,10 +2960,10 @@
   <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2983,37 +2983,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
     </row>
     <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3029,43 +3029,43 @@
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="177"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="170" t="s">
+      <c r="J3" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="169" t="s">
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="169" t="s">
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="169" t="s">
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="171"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="178"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
@@ -3685,7 +3685,7 @@
       <c r="D17" s="60">
         <v>6</v>
       </c>
-      <c r="E17" s="183">
+      <c r="E17" s="167">
         <v>1</v>
       </c>
       <c r="F17" s="35"/>
@@ -3726,7 +3726,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="183">
+      <c r="E18" s="167">
         <v>1</v>
       </c>
       <c r="F18" s="35"/>
@@ -3767,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="60"/>
-      <c r="E19" s="183">
+      <c r="E19" s="167">
         <v>1</v>
       </c>
       <c r="F19" s="35"/>
@@ -3806,7 +3806,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="60"/>
-      <c r="E20" s="183">
+      <c r="E20" s="167">
         <v>1</v>
       </c>
       <c r="F20" s="35"/>
@@ -3848,7 +3848,7 @@
         <f>IF(SUM(J21:AC21)=0," ",SUM(J21:AC21))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="184">
+      <c r="E21" s="168">
         <v>1</v>
       </c>
       <c r="F21" s="35"/>
@@ -3870,7 +3870,7 @@
       <c r="V21" s="39"/>
       <c r="W21" s="47"/>
       <c r="X21" s="45"/>
-      <c r="Y21" s="180"/>
+      <c r="Y21" s="164"/>
       <c r="Z21" s="49"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="36"/>
@@ -3887,7 +3887,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="36"/>
-      <c r="E22" s="182">
+      <c r="E22" s="166">
         <v>2</v>
       </c>
       <c r="F22" s="35"/>
@@ -3909,7 +3909,7 @@
       <c r="V22" s="39"/>
       <c r="W22" s="135"/>
       <c r="X22" s="45"/>
-      <c r="Y22" s="180"/>
+      <c r="Y22" s="164"/>
       <c r="Z22" s="49"/>
       <c r="AA22" s="49"/>
       <c r="AB22" s="36"/>
@@ -3926,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="36"/>
-      <c r="E23" s="182">
+      <c r="E23" s="166">
         <v>2</v>
       </c>
       <c r="F23" s="35"/>
@@ -3948,7 +3948,7 @@
       <c r="V23" s="39"/>
       <c r="W23" s="135"/>
       <c r="X23" s="45"/>
-      <c r="Y23" s="180"/>
+      <c r="Y23" s="164"/>
       <c r="Z23" s="49"/>
       <c r="AA23" s="49"/>
       <c r="AB23" s="36"/>
@@ -3965,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="36"/>
-      <c r="E24" s="182">
+      <c r="E24" s="166">
         <v>2</v>
       </c>
       <c r="F24" s="35"/>
@@ -3987,7 +3987,7 @@
       <c r="V24" s="39"/>
       <c r="W24" s="47"/>
       <c r="X24" s="147"/>
-      <c r="Y24" s="180"/>
+      <c r="Y24" s="164"/>
       <c r="Z24" s="49"/>
       <c r="AA24" s="49"/>
       <c r="AB24" s="36"/>
@@ -4004,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="36"/>
-      <c r="E25" s="181">
+      <c r="E25" s="165">
         <v>3</v>
       </c>
       <c r="F25" s="35"/>
@@ -4026,11 +4026,11 @@
       <c r="V25" s="39"/>
       <c r="W25" s="47"/>
       <c r="X25" s="45"/>
-      <c r="Y25" s="148"/>
+      <c r="Y25" s="187"/>
       <c r="Z25" s="49"/>
       <c r="AA25" s="49"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="80"/>
+      <c r="AB25" s="169"/>
+      <c r="AC25" s="170"/>
     </row>
     <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71">
@@ -4046,7 +4046,7 @@
         <f t="shared" ref="D26:D29" si="2">IF(SUM(J26:AC26)=0," ",SUM(J26:AC26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="184">
+      <c r="E26" s="168">
         <v>1</v>
       </c>
       <c r="F26" s="35"/>
@@ -4066,13 +4066,13 @@
       <c r="T26" s="36"/>
       <c r="U26" s="156"/>
       <c r="V26" s="39"/>
-      <c r="W26" s="47"/>
+      <c r="W26" s="135"/>
       <c r="X26" s="45"/>
-      <c r="Y26" s="186"/>
+      <c r="Y26" s="148"/>
       <c r="Z26" s="49"/>
       <c r="AA26" s="49"/>
       <c r="AB26" s="143"/>
-      <c r="AC26" s="80"/>
+      <c r="AC26" s="134"/>
     </row>
     <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71">
@@ -4088,7 +4088,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="184">
+      <c r="E27" s="168">
         <v>1</v>
       </c>
       <c r="F27" s="35"/>
@@ -4108,9 +4108,9 @@
       <c r="T27" s="160"/>
       <c r="U27" s="156"/>
       <c r="V27" s="39"/>
-      <c r="W27" s="47"/>
+      <c r="W27" s="135"/>
       <c r="X27" s="45"/>
-      <c r="Y27" s="180"/>
+      <c r="Y27" s="148"/>
       <c r="Z27" s="49"/>
       <c r="AA27" s="49"/>
       <c r="AB27" s="143"/>
@@ -4130,7 +4130,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="181">
+      <c r="E28" s="165">
         <v>3</v>
       </c>
       <c r="F28" s="35"/>
@@ -4152,11 +4152,11 @@
       <c r="V28" s="39"/>
       <c r="W28" s="47"/>
       <c r="X28" s="45"/>
-      <c r="Y28" s="180"/>
+      <c r="Y28" s="164"/>
       <c r="Z28" s="49"/>
       <c r="AA28" s="49"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="187"/>
+      <c r="AB28" s="169"/>
+      <c r="AC28" s="170"/>
     </row>
     <row r="29" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71">
@@ -4172,7 +4172,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="181">
+      <c r="E29" s="165">
         <v>3</v>
       </c>
       <c r="F29" s="35"/>
@@ -4194,11 +4194,11 @@
       <c r="V29" s="39"/>
       <c r="W29" s="47"/>
       <c r="X29" s="45"/>
-      <c r="Y29" s="180"/>
+      <c r="Y29" s="164"/>
       <c r="Z29" s="49"/>
       <c r="AA29" s="49"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="187"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="170"/>
     </row>
     <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
@@ -4385,14 +4385,14 @@
     </row>
     <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
     </row>
     <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="118"/>
@@ -4406,26 +4406,26 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="166"/>
-      <c r="N34" s="166"/>
-      <c r="O34" s="166"/>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="166"/>
-      <c r="R34" s="166"/>
-      <c r="S34" s="166"/>
-      <c r="T34" s="166"/>
-      <c r="U34" s="166"/>
-      <c r="V34" s="166"/>
-      <c r="W34" s="166"/>
-      <c r="X34" s="166"/>
-      <c r="Y34" s="166"/>
-      <c r="Z34" s="166"/>
-      <c r="AA34" s="166"/>
-      <c r="AB34" s="166"/>
-      <c r="AC34" s="166"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
+      <c r="O34" s="173"/>
+      <c r="P34" s="173"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="173"/>
+      <c r="S34" s="173"/>
+      <c r="T34" s="173"/>
+      <c r="U34" s="173"/>
+      <c r="V34" s="173"/>
+      <c r="W34" s="173"/>
+      <c r="X34" s="173"/>
+      <c r="Y34" s="173"/>
+      <c r="Z34" s="173"/>
+      <c r="AA34" s="173"/>
+      <c r="AB34" s="173"/>
+      <c r="AC34" s="173"/>
     </row>
     <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="163"/>
@@ -4439,26 +4439,26 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="164"/>
-      <c r="P35" s="164"/>
-      <c r="Q35" s="164"/>
-      <c r="R35" s="164"/>
-      <c r="S35" s="164"/>
-      <c r="T35" s="164"/>
-      <c r="U35" s="164"/>
-      <c r="V35" s="164"/>
-      <c r="W35" s="164"/>
-      <c r="X35" s="164"/>
-      <c r="Y35" s="164"/>
-      <c r="Z35" s="164"/>
-      <c r="AA35" s="164"/>
-      <c r="AB35" s="164"/>
-      <c r="AC35" s="164"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="171"/>
+      <c r="Q35" s="171"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="171"/>
+      <c r="T35" s="171"/>
+      <c r="U35" s="171"/>
+      <c r="V35" s="171"/>
+      <c r="W35" s="171"/>
+      <c r="X35" s="171"/>
+      <c r="Y35" s="171"/>
+      <c r="Z35" s="171"/>
+      <c r="AA35" s="171"/>
+      <c r="AB35" s="171"/>
+      <c r="AC35" s="171"/>
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -4470,26 +4470,26 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="164"/>
-      <c r="L36" s="164"/>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
-      <c r="P36" s="164"/>
-      <c r="Q36" s="164"/>
-      <c r="R36" s="164"/>
-      <c r="S36" s="164"/>
-      <c r="T36" s="164"/>
-      <c r="U36" s="164"/>
-      <c r="V36" s="164"/>
-      <c r="W36" s="164"/>
-      <c r="X36" s="164"/>
-      <c r="Y36" s="164"/>
-      <c r="Z36" s="164"/>
-      <c r="AA36" s="164"/>
-      <c r="AB36" s="164"/>
-      <c r="AC36" s="164"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="171"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="171"/>
+      <c r="P36" s="171"/>
+      <c r="Q36" s="171"/>
+      <c r="R36" s="171"/>
+      <c r="S36" s="171"/>
+      <c r="T36" s="171"/>
+      <c r="U36" s="171"/>
+      <c r="V36" s="171"/>
+      <c r="W36" s="171"/>
+      <c r="X36" s="171"/>
+      <c r="Y36" s="171"/>
+      <c r="Z36" s="171"/>
+      <c r="AA36" s="171"/>
+      <c r="AB36" s="171"/>
+      <c r="AC36" s="171"/>
     </row>
     <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
@@ -4560,21 +4560,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="175"/>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
+      <c r="A1" s="182"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4880,10 +4880,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="177"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
@@ -4892,10 +4892,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="173" t="s">
+      <c r="A28" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="174"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>17</v>
@@ -4906,10 +4906,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="179"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
@@ -4920,10 +4920,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="174"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>152</v>
@@ -4934,10 +4934,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="178" t="s">
+      <c r="A31" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="179"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4948,10 +4948,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="173" t="s">
+      <c r="A32" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="174"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C30</f>
         <v>34</v>
@@ -4962,10 +4962,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="174"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Nr.</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>i.a.</t>
   </si>
 </sst>
 </file>
@@ -1976,6 +1979,9 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="73" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2020,9 +2026,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2444,7 +2447,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2963,7 +2966,7 @@
       <pane xSplit="9" ySplit="4" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2983,37 +2986,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="176"/>
+      <c r="R1" s="176"/>
+      <c r="S1" s="176"/>
+      <c r="T1" s="176"/>
+      <c r="U1" s="176"/>
+      <c r="V1" s="176"/>
+      <c r="W1" s="176"/>
+      <c r="X1" s="176"/>
+      <c r="Y1" s="176"/>
+      <c r="Z1" s="176"/>
+      <c r="AA1" s="176"/>
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="176"/>
     </row>
     <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3029,43 +3032,43 @@
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="178"/>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="23"/>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="176" t="s">
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="176" t="s">
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="176" t="s">
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="179"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
@@ -3601,7 +3604,7 @@
       </c>
       <c r="D15" s="94">
         <f>SUM(D16:D21)</f>
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E15" s="95"/>
       <c r="F15" s="96"/>
@@ -3725,7 +3728,9 @@
       <c r="C18" s="35">
         <v>16</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="60">
+        <v>18</v>
+      </c>
       <c r="E18" s="167">
         <v>1</v>
       </c>
@@ -3733,7 +3738,7 @@
       <c r="G18" s="61"/>
       <c r="H18" s="37"/>
       <c r="I18" s="87" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J18" s="61"/>
       <c r="K18" s="39"/>
@@ -3766,14 +3771,18 @@
       <c r="C19" s="35">
         <v>10</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="60">
+        <v>14</v>
+      </c>
       <c r="E19" s="167">
         <v>1</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="61"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="87"/>
+      <c r="I19" s="87" t="s">
+        <v>53</v>
+      </c>
       <c r="J19" s="61"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
@@ -3805,14 +3814,18 @@
       <c r="C20" s="35">
         <v>16</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="60">
+        <v>21</v>
+      </c>
       <c r="E20" s="167">
         <v>1</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="61"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="87"/>
+      <c r="I20" s="87" t="s">
+        <v>53</v>
+      </c>
       <c r="J20" s="61"/>
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
@@ -3844,9 +3857,8 @@
       <c r="C21" s="45">
         <v>12</v>
       </c>
-      <c r="D21" s="36" t="str">
-        <f>IF(SUM(J21:AC21)=0," ",SUM(J21:AC21))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D21" s="36">
+        <v>18</v>
       </c>
       <c r="E21" s="168">
         <v>1</v>
@@ -3854,7 +3866,9 @@
       <c r="F21" s="35"/>
       <c r="G21" s="61"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="87"/>
+      <c r="I21" s="87" t="s">
+        <v>54</v>
+      </c>
       <c r="J21" s="54"/>
       <c r="K21" s="47"/>
       <c r="L21" s="47"/>
@@ -3886,7 +3900,9 @@
       <c r="C22" s="45">
         <v>16</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="36">
+        <v>0</v>
+      </c>
       <c r="E22" s="166">
         <v>2</v>
       </c>
@@ -3925,7 +3941,9 @@
       <c r="C23" s="45">
         <v>8</v>
       </c>
-      <c r="D23" s="36"/>
+      <c r="D23" s="36">
+        <v>0</v>
+      </c>
       <c r="E23" s="166">
         <v>2</v>
       </c>
@@ -4026,7 +4044,7 @@
       <c r="V25" s="39"/>
       <c r="W25" s="47"/>
       <c r="X25" s="45"/>
-      <c r="Y25" s="187"/>
+      <c r="Y25" s="171"/>
       <c r="Z25" s="49"/>
       <c r="AA25" s="49"/>
       <c r="AB25" s="169"/>
@@ -4385,14 +4403,14 @@
     </row>
     <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="115"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
     </row>
     <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="118"/>
@@ -4406,26 +4424,26 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="173"/>
-      <c r="U34" s="173"/>
-      <c r="V34" s="173"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-      <c r="AC34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="174"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="174"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="174"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="174"/>
+      <c r="S34" s="174"/>
+      <c r="T34" s="174"/>
+      <c r="U34" s="174"/>
+      <c r="V34" s="174"/>
+      <c r="W34" s="174"/>
+      <c r="X34" s="174"/>
+      <c r="Y34" s="174"/>
+      <c r="Z34" s="174"/>
+      <c r="AA34" s="174"/>
+      <c r="AB34" s="174"/>
+      <c r="AC34" s="174"/>
     </row>
     <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="163"/>
@@ -4439,26 +4457,26 @@
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="171"/>
-      <c r="O35" s="171"/>
-      <c r="P35" s="171"/>
-      <c r="Q35" s="171"/>
-      <c r="R35" s="171"/>
-      <c r="S35" s="171"/>
-      <c r="T35" s="171"/>
-      <c r="U35" s="171"/>
-      <c r="V35" s="171"/>
-      <c r="W35" s="171"/>
-      <c r="X35" s="171"/>
-      <c r="Y35" s="171"/>
-      <c r="Z35" s="171"/>
-      <c r="AA35" s="171"/>
-      <c r="AB35" s="171"/>
-      <c r="AC35" s="171"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="172"/>
+      <c r="M35" s="172"/>
+      <c r="N35" s="172"/>
+      <c r="O35" s="172"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="172"/>
+      <c r="R35" s="172"/>
+      <c r="S35" s="172"/>
+      <c r="T35" s="172"/>
+      <c r="U35" s="172"/>
+      <c r="V35" s="172"/>
+      <c r="W35" s="172"/>
+      <c r="X35" s="172"/>
+      <c r="Y35" s="172"/>
+      <c r="Z35" s="172"/>
+      <c r="AA35" s="172"/>
+      <c r="AB35" s="172"/>
+      <c r="AC35" s="172"/>
     </row>
     <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -4470,26 +4488,26 @@
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="171"/>
-      <c r="R36" s="171"/>
-      <c r="S36" s="171"/>
-      <c r="T36" s="171"/>
-      <c r="U36" s="171"/>
-      <c r="V36" s="171"/>
-      <c r="W36" s="171"/>
-      <c r="X36" s="171"/>
-      <c r="Y36" s="171"/>
-      <c r="Z36" s="171"/>
-      <c r="AA36" s="171"/>
-      <c r="AB36" s="171"/>
-      <c r="AC36" s="171"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="172"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="172"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172"/>
+      <c r="R36" s="172"/>
+      <c r="S36" s="172"/>
+      <c r="T36" s="172"/>
+      <c r="U36" s="172"/>
+      <c r="V36" s="172"/>
+      <c r="W36" s="172"/>
+      <c r="X36" s="172"/>
+      <c r="Y36" s="172"/>
+      <c r="Z36" s="172"/>
+      <c r="AA36" s="172"/>
+      <c r="AB36" s="172"/>
+      <c r="AC36" s="172"/>
     </row>
     <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
@@ -4560,21 +4578,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="182"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
+      <c r="A1" s="183"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
+      <c r="O1" s="183"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4880,10 +4898,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="184"/>
+      <c r="B27" s="185"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
@@ -4892,10 +4910,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="181"/>
+      <c r="B28" s="182"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>17</v>
@@ -4906,10 +4924,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="185" t="s">
+      <c r="A29" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="186"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
@@ -4920,24 +4938,24 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="180" t="s">
+      <c r="A30" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="181"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>152</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="186"/>
+      <c r="B31" s="187"/>
       <c r="C31" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4948,10 +4966,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180" t="s">
+      <c r="A32" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="181"/>
+      <c r="B32" s="182"/>
       <c r="C32" s="5">
         <f>'IPA Zeitplanung'!C30</f>
         <v>34</v>
@@ -4962,10 +4980,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="181"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Ist Arbeitszeit - Übersicht" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Nr.</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>i.a.</t>
+  </si>
+  <si>
+    <t>KW 5</t>
+  </si>
+  <si>
+    <t>Abschluss &amp; Präsentation</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1483,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1505,9 +1511,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2026,6 +2029,42 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2960,13 +2999,13 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="4" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2974,51 +3013,55 @@
     <col min="1" max="1" width="3.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5" style="21" customWidth="1"/>
+    <col min="4" max="4" width="5" style="20" customWidth="1"/>
     <col min="5" max="5" width="5" style="9" customWidth="1"/>
     <col min="6" max="7" width="3.125" style="9" customWidth="1"/>
     <col min="8" max="8" width="7.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.25" style="22" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="21" customWidth="1"/>
     <col min="10" max="29" width="3.125" style="9" customWidth="1"/>
     <col min="30" max="30" width="4.25" style="8" customWidth="1"/>
-    <col min="31" max="39" width="12.5" style="8" customWidth="1"/>
+    <col min="31" max="31" width="4.375" style="8" customWidth="1"/>
+    <col min="32" max="32" width="4.125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="12.5" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="4.125" style="8" customWidth="1"/>
+    <col min="35" max="39" width="12.5" style="8" customWidth="1"/>
     <col min="40" max="16384" width="12.5" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+    <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-    </row>
-    <row r="2" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="175"/>
+      <c r="V1" s="175"/>
+      <c r="W1" s="175"/>
+      <c r="X1" s="175"/>
+      <c r="Y1" s="175"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="175"/>
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="175"/>
+    </row>
+    <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3029,1515 +3072,1730 @@
       <c r="H2" s="8"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="178" t="s">
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="178" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="180"/>
-      <c r="O3" s="177" t="s">
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="177" t="s">
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="177" t="s">
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-    </row>
-    <row r="4" spans="1:33" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="27" t="s">
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="178"/>
+      <c r="AD3" s="176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="178"/>
+    </row>
+    <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="G4" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="106">
+      <c r="J4" s="105">
         <v>42702</v>
       </c>
-      <c r="K4" s="119">
+      <c r="K4" s="118">
         <v>42703</v>
       </c>
-      <c r="L4" s="119">
+      <c r="L4" s="118">
         <v>42704</v>
       </c>
-      <c r="M4" s="106">
+      <c r="M4" s="105">
         <v>42705</v>
       </c>
-      <c r="N4" s="106">
+      <c r="N4" s="105">
         <v>42706</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="31">
         <f>N4+3</f>
         <v>42709</v>
       </c>
-      <c r="P4" s="120">
+      <c r="P4" s="119">
         <f>O4+1</f>
         <v>42710</v>
       </c>
-      <c r="Q4" s="120">
+      <c r="Q4" s="119">
         <f>P4+1</f>
         <v>42711</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="161">
         <f>Q4+1</f>
         <v>42712</v>
       </c>
-      <c r="S4" s="162">
+      <c r="S4" s="161">
         <f>R4+1</f>
         <v>42713</v>
       </c>
-      <c r="T4" s="32">
+      <c r="T4" s="31">
         <f>S4+3</f>
         <v>42716</v>
       </c>
-      <c r="U4" s="121">
+      <c r="U4" s="120">
         <f>T4+1</f>
         <v>42717</v>
       </c>
-      <c r="V4" s="121">
+      <c r="V4" s="120">
         <f>U4+1</f>
         <v>42718</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="29">
         <f>V4+1</f>
         <v>42719</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="30">
         <f>W4+1</f>
         <v>42720</v>
       </c>
-      <c r="Y4" s="32">
+      <c r="Y4" s="31">
         <f>X4+3</f>
         <v>42723</v>
       </c>
-      <c r="Z4" s="121">
+      <c r="Z4" s="120">
         <f>Y4+1</f>
         <v>42724</v>
       </c>
-      <c r="AA4" s="121">
+      <c r="AA4" s="120">
         <f>Z4+1</f>
         <v>42725</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="32">
         <f>AA4+1</f>
         <v>42726</v>
       </c>
-      <c r="AC4" s="75">
+      <c r="AC4" s="74">
         <f>AB4+1</f>
         <v>42727</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90">
+      <c r="AD4" s="74">
+        <v>42374</v>
+      </c>
+      <c r="AE4" s="74">
+        <v>42375</v>
+      </c>
+      <c r="AF4" s="74">
+        <v>42381</v>
+      </c>
+      <c r="AG4" s="74">
+        <v>42382</v>
+      </c>
+      <c r="AH4" s="74">
+        <v>42382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89">
         <v>10</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="92">
         <f>SUM(C6:C10)</f>
         <v>17</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="93">
         <f>SUM(D6:D10)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="103"/>
-    </row>
-    <row r="6" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="102"/>
+    </row>
+    <row r="6" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
         <v>11</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <v>5</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34">
+      <c r="D6" s="35"/>
+      <c r="E6" s="33">
         <v>1</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="86" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="122"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="77"/>
-    </row>
-    <row r="7" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="J6" s="121"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="76"/>
+    </row>
+    <row r="7" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
         <v>12</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="36" t="str">
+      <c r="D7" s="35" t="str">
         <f t="shared" ref="D7:D10" si="0">IF(SUM(J7:AC7)=0," ",SUM(J7:AC7))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="87" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="79"/>
-    </row>
-    <row r="8" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="J7" s="121"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="78"/>
+    </row>
+    <row r="8" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
         <v>13</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="44">
         <v>4</v>
       </c>
-      <c r="D8" s="36" t="str">
+      <c r="D8" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="43">
         <v>1</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="87" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="138"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="138"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="135"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="138"/>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="134"/>
-      <c r="AE8" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="J8" s="121"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="137"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="137"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="139"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="133"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="78"/>
+    </row>
+    <row r="9" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
         <v>14</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="44">
         <v>4</v>
       </c>
-      <c r="D9" s="36" t="str">
+      <c r="D9" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>1</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="136"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="80"/>
-    </row>
-    <row r="10" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="F9" s="34"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="78"/>
+    </row>
+    <row r="10" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
         <v>15</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="55">
         <v>3</v>
       </c>
-      <c r="D10" s="36" t="str">
+      <c r="D10" s="35" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="54">
         <v>1</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="129"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="134"/>
-    </row>
-    <row r="11" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90">
+      <c r="F10" s="45"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="129"/>
+      <c r="U10" s="123"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="123"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="126"/>
+      <c r="AA10" s="126"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="131"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="78"/>
+    </row>
+    <row r="11" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89">
         <v>20</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="103">
         <f>SUM(C12:C14)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="92">
         <f>SUM(D12:D14)</f>
         <v>2</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101"/>
-      <c r="W11" s="101"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="103"/>
-    </row>
-    <row r="12" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="101"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="100"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="102"/>
+    </row>
+    <row r="12" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="70">
         <v>21</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>1</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="59">
         <v>2</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="87" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="144"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="82"/>
-    </row>
-    <row r="13" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="J12" s="143"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="81"/>
+    </row>
+    <row r="13" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="70">
         <v>22</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="60" t="str">
+      <c r="B13" s="75"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="59" t="str">
         <f t="shared" ref="D13:D14" si="1">IF(SUM(J13:AC13)=0," ",SUM(J13:AC13))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="82"/>
-    </row>
-    <row r="14" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="81"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="40"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="81"/>
+    </row>
+    <row r="14" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70">
         <v>23</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="60" t="str">
+      <c r="B14" s="75"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <v>1</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="39" t="s">
+      <c r="F14" s="34"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="82"/>
-    </row>
-    <row r="15" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+      <c r="N14" s="61"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="81"/>
+    </row>
+    <row r="15" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89">
         <v>30</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="92">
         <f>SUM(C16:C29)</f>
         <v>152</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="93">
         <f>SUM(D16:D21)</f>
         <v>85</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="102"/>
-      <c r="AC15" s="103"/>
-    </row>
-    <row r="16" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="100"/>
+      <c r="AA15" s="100"/>
+      <c r="AB15" s="101"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="91"/>
+      <c r="AE15" s="100"/>
+      <c r="AF15" s="100"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="102"/>
+    </row>
+    <row r="16" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
         <v>31</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>8</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="59">
         <v>8</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <v>1</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="87" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="153"/>
-      <c r="T16" s="154"/>
-      <c r="U16" s="149"/>
-      <c r="V16" s="149"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="151"/>
-      <c r="Z16" s="152"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="82"/>
-    </row>
-    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
+      <c r="J16" s="60"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="151"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="151"/>
+      <c r="S16" s="152"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="154"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="151"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="81"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="151"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="81"/>
+    </row>
+    <row r="17" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70">
         <v>32</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="34">
         <v>4</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="59">
         <v>6</v>
       </c>
-      <c r="E17" s="167">
+      <c r="E17" s="166">
         <v>1</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="87" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="149"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="154"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="152"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="82"/>
-    </row>
-    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="J17" s="60"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="152"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="148"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="150"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="81"/>
+    </row>
+    <row r="18" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70">
         <v>33</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>16</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="59">
         <v>18</v>
       </c>
-      <c r="E18" s="167">
+      <c r="E18" s="166">
         <v>1</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="87" t="s">
+      <c r="F18" s="34"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="136"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="154"/>
-      <c r="U18" s="149"/>
-      <c r="V18" s="149"/>
-      <c r="W18" s="149"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="151"/>
-      <c r="Z18" s="152"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="82"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71">
+      <c r="J18" s="60"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="151"/>
+      <c r="S18" s="152"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="148"/>
+      <c r="W18" s="148"/>
+      <c r="X18" s="154"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="151"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="150"/>
+      <c r="AE18" s="151"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="81"/>
+    </row>
+    <row r="19" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="70">
         <v>34</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>10</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="59">
         <v>14</v>
       </c>
-      <c r="E19" s="167">
+      <c r="E19" s="166">
         <v>1</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="87" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="150"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="153"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="149"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="151"/>
-      <c r="Z19" s="152"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="82"/>
-    </row>
-    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71">
+      <c r="J19" s="60"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="151"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="151"/>
+      <c r="S19" s="152"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="148"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="151"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="81"/>
+      <c r="AD19" s="150"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="81"/>
+    </row>
+    <row r="20" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70">
         <v>35</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>16</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="59">
         <v>21</v>
       </c>
-      <c r="E20" s="167">
+      <c r="E20" s="166">
         <v>1</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="87" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="149"/>
-      <c r="R20" s="152"/>
-      <c r="S20" s="153"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="149"/>
-      <c r="V20" s="149"/>
-      <c r="W20" s="149"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="151"/>
-      <c r="Z20" s="152"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="82"/>
-    </row>
-    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71">
+      <c r="J20" s="60"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="151"/>
+      <c r="S20" s="152"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="148"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="151"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="150"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="81"/>
+    </row>
+    <row r="21" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="70">
         <v>36</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="44">
         <v>12</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <v>18</v>
       </c>
-      <c r="E21" s="168">
+      <c r="E21" s="167">
         <v>1</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="87" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="J21" s="54"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="150"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="149"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="156"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="80"/>
-    </row>
-    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="71">
+      <c r="J21" s="53"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="156"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="157"/>
+      <c r="S21" s="158"/>
+      <c r="T21" s="142"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="79"/>
+    </row>
+    <row r="22" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="70">
         <v>37</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="44">
         <v>16</v>
       </c>
-      <c r="D22" s="36">
-        <v>0</v>
-      </c>
-      <c r="E22" s="166">
+      <c r="D22" s="35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="165">
         <v>2</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="80"/>
-    </row>
-    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71">
+      <c r="F22" s="34"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="142"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="163"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="163"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="79"/>
+    </row>
+    <row r="23" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70">
         <v>38</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="44">
         <v>8</v>
       </c>
-      <c r="D23" s="36">
-        <v>0</v>
-      </c>
-      <c r="E23" s="166">
+      <c r="D23" s="35">
+        <v>0</v>
+      </c>
+      <c r="E23" s="165">
         <v>2</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="80"/>
-    </row>
-    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="71">
+      <c r="F23" s="34"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="163"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="163"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="79"/>
+    </row>
+    <row r="24" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70">
         <v>39</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="44">
         <v>16</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="166">
+      <c r="D24" s="35"/>
+      <c r="E24" s="165">
         <v>2</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="80"/>
-    </row>
-    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71">
+      <c r="F24" s="34"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="146"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="48"/>
+      <c r="AF24" s="48"/>
+      <c r="AG24" s="35"/>
+      <c r="AH24" s="79"/>
+    </row>
+    <row r="25" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="70">
         <v>40</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="44">
         <v>6</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="165">
+      <c r="D25" s="35"/>
+      <c r="E25" s="164">
         <v>3</v>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="171"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
-      <c r="AB25" s="169"/>
-      <c r="AC25" s="170"/>
-    </row>
-    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="F25" s="34"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="170"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="168"/>
+      <c r="AC25" s="169"/>
+      <c r="AD25" s="170"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="168"/>
+      <c r="AH25" s="79"/>
+    </row>
+    <row r="26" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="70">
         <v>41</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="44">
         <v>12</v>
       </c>
-      <c r="D26" s="36" t="str">
+      <c r="D26" s="35" t="str">
         <f t="shared" ref="D26:D29" si="2">IF(SUM(J26:AC26)=0," ",SUM(J26:AC26))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="168">
+      <c r="E26" s="167">
         <v>1</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="150"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="156"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
-      <c r="AB26" s="143"/>
-      <c r="AC26" s="134"/>
-    </row>
-    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="71">
+      <c r="F26" s="34"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="147"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="142"/>
+      <c r="AC26" s="133"/>
+      <c r="AD26" s="168"/>
+      <c r="AE26" s="168"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="142"/>
+      <c r="AH26" s="79"/>
+    </row>
+    <row r="27" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="70">
         <v>42</v>
       </c>
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="44">
         <v>12</v>
       </c>
-      <c r="D27" s="36" t="str">
+      <c r="D27" s="35" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="168">
-        <v>1</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="156"/>
-      <c r="N27" s="150"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="156"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
-      <c r="AB27" s="143"/>
-      <c r="AC27" s="134"/>
-    </row>
-    <row r="28" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71">
+      <c r="E27" s="165">
+        <v>2</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="157"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="157"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="147"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="133"/>
+      <c r="AD27" s="168"/>
+      <c r="AE27" s="168"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="142"/>
+      <c r="AH27" s="79"/>
+    </row>
+    <row r="28" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="70">
         <v>43</v>
       </c>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="44">
         <v>8</v>
       </c>
-      <c r="D28" s="36" t="str">
+      <c r="D28" s="35" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E28" s="165">
+      <c r="E28" s="164">
         <v>3</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="158"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="156"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
-      <c r="AB28" s="169"/>
-      <c r="AC28" s="170"/>
-    </row>
-    <row r="29" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71">
+      <c r="F28" s="34"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="158"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="163"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
+      <c r="AB28" s="168"/>
+      <c r="AC28" s="169"/>
+      <c r="AD28" s="163"/>
+      <c r="AE28" s="48"/>
+      <c r="AF28" s="48"/>
+      <c r="AG28" s="168"/>
+      <c r="AH28" s="79"/>
+    </row>
+    <row r="29" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="70">
         <v>44</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="44">
         <v>8</v>
       </c>
-      <c r="D29" s="36" t="str">
+      <c r="D29" s="35" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E29" s="165">
+      <c r="E29" s="164">
         <v>3</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="150"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="158"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="160"/>
-      <c r="U29" s="156"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="164"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
-      <c r="AB29" s="169"/>
-      <c r="AC29" s="170"/>
-    </row>
-    <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90">
+      <c r="F29" s="34"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="157"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="157"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
+      <c r="AB29" s="168"/>
+      <c r="AC29" s="169"/>
+      <c r="AD29" s="163"/>
+      <c r="AE29" s="48"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="168"/>
+      <c r="AH29" s="79"/>
+    </row>
+    <row r="30" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70">
+        <v>45</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="44">
+        <v>16</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="167">
+        <v>1</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="192"/>
+      <c r="O30" s="193"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="195"/>
+      <c r="S30" s="192"/>
+      <c r="T30" s="195"/>
+      <c r="U30" s="196"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="197"/>
+      <c r="AG30" s="197"/>
+      <c r="AH30" s="198"/>
+    </row>
+    <row r="31" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="89">
         <v>50</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B31" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="93">
-        <f>SUM(C31)</f>
+      <c r="C31" s="92">
+        <f>SUM(C32)</f>
         <v>34</v>
       </c>
-      <c r="D30" s="94">
-        <f>SUM(D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="103"/>
-    </row>
-    <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+      <c r="D31" s="93">
+        <f>SUM(D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="94"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="99"/>
+      <c r="S31" s="96"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="100"/>
+      <c r="V31" s="100"/>
+      <c r="W31" s="100"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="100"/>
+      <c r="AA31" s="100"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="100"/>
+      <c r="AF31" s="100"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="102"/>
+    </row>
+    <row r="32" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="71">
         <v>51</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B32" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C32" s="57">
         <f>SUM(C5,C11,C15)*0.2</f>
         <v>34</v>
       </c>
-      <c r="D31" s="66" t="str">
-        <f>IF(SUM(J31:AC31)=0," ",SUM(J31:AC31))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E31" s="63">
-        <v>3</v>
-      </c>
-      <c r="F31" s="58"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="65"/>
-      <c r="AC31" s="79"/>
-    </row>
-    <row r="32" spans="1:29" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="109">
-        <f>SUM(C5,C11,C15,C30)</f>
-        <v>204</v>
-      </c>
-      <c r="D32" s="109" t="str">
+      <c r="D32" s="65" t="str">
         <f>IF(SUM(J32:AC32)=0," ",SUM(J32:AC32))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="112">
-        <f t="shared" ref="J32:AC32" si="3">SUM(J5:J31)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="109">
+      <c r="E32" s="62">
+        <v>3</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="78"/>
+    </row>
+    <row r="33" spans="1:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="88"/>
+      <c r="B33" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="108">
+        <f>SUM(C5,C11,C15,C31)</f>
+        <v>204</v>
+      </c>
+      <c r="D33" s="108" t="str">
+        <f>IF(SUM(J33:AC33)=0," ",SUM(J33:AC33))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="111">
+        <f t="shared" ref="J33:AC33" si="3">SUM(J5:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="113">
+      <c r="L33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M32" s="113">
+      <c r="M33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N32" s="113">
+      <c r="N33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O32" s="113">
+      <c r="O33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P32" s="109">
+      <c r="P33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="113">
+      <c r="Q33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R32" s="109">
+      <c r="R33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S32" s="113">
+      <c r="S33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T32" s="113">
+      <c r="T33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U32" s="109">
+      <c r="U33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V32" s="113">
+      <c r="V33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W32" s="109">
+      <c r="W33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X32" s="113">
+      <c r="X33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="113">
+      <c r="Y33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="109">
+      <c r="Z33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="113">
+      <c r="AA33" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="109">
+      <c r="AB33" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="114">
+      <c r="AC33" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-    </row>
-    <row r="34" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
-      <c r="B34" s="15" t="s">
+      <c r="AD33" s="112">
+        <f>SUM(AD5:AD32)</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="108">
+        <f>SUM(AE5:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="112">
+        <f>SUM(AF5:AF32)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="108">
+        <f>SUM(AG5:AG32)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="113">
+        <f>SUM(AH5:AH32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="114"/>
+      <c r="B34" s="174"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="174"/>
+    </row>
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="117"/>
+      <c r="B35" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="174"/>
-      <c r="O34" s="174"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="174"/>
-      <c r="R34" s="174"/>
-      <c r="S34" s="174"/>
-      <c r="T34" s="174"/>
-      <c r="U34" s="174"/>
-      <c r="V34" s="174"/>
-      <c r="W34" s="174"/>
-      <c r="X34" s="174"/>
-      <c r="Y34" s="174"/>
-      <c r="Z34" s="174"/>
-      <c r="AA34" s="174"/>
-      <c r="AB34" s="174"/>
-      <c r="AC34" s="174"/>
-    </row>
-    <row r="35" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="163"/>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="173"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="173"/>
+      <c r="O35" s="173"/>
+      <c r="P35" s="173"/>
+      <c r="Q35" s="173"/>
+      <c r="R35" s="173"/>
+      <c r="S35" s="173"/>
+      <c r="T35" s="173"/>
+      <c r="U35" s="173"/>
+      <c r="V35" s="173"/>
+      <c r="W35" s="173"/>
+      <c r="X35" s="173"/>
+      <c r="Y35" s="173"/>
+      <c r="Z35" s="173"/>
+      <c r="AA35" s="173"/>
+      <c r="AB35" s="173"/>
+      <c r="AC35" s="173"/>
+    </row>
+    <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="162"/>
+      <c r="B36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="172"/>
-      <c r="U35" s="172"/>
-      <c r="V35" s="172"/>
-      <c r="W35" s="172"/>
-      <c r="X35" s="172"/>
-      <c r="Y35" s="172"/>
-      <c r="Z35" s="172"/>
-      <c r="AA35" s="172"/>
-      <c r="AB35" s="172"/>
-      <c r="AC35" s="172"/>
-    </row>
-    <row r="36" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="172"/>
-      <c r="U36" s="172"/>
-      <c r="V36" s="172"/>
-      <c r="W36" s="172"/>
-      <c r="X36" s="172"/>
-      <c r="Y36" s="172"/>
-      <c r="Z36" s="172"/>
-      <c r="AA36" s="172"/>
-      <c r="AB36" s="172"/>
-      <c r="AC36" s="172"/>
-    </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="171"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="171"/>
+      <c r="P36" s="171"/>
+      <c r="Q36" s="171"/>
+      <c r="R36" s="171"/>
+      <c r="S36" s="171"/>
+      <c r="T36" s="171"/>
+      <c r="U36" s="171"/>
+      <c r="V36" s="171"/>
+      <c r="W36" s="171"/>
+      <c r="X36" s="171"/>
+      <c r="Y36" s="171"/>
+      <c r="Z36" s="171"/>
+      <c r="AA36" s="171"/>
+      <c r="AB36" s="171"/>
+      <c r="AC36" s="171"/>
+    </row>
+    <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="171"/>
+      <c r="P37" s="171"/>
+      <c r="Q37" s="171"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="171"/>
+      <c r="T37" s="171"/>
+      <c r="U37" s="171"/>
+      <c r="V37" s="171"/>
+      <c r="W37" s="171"/>
+      <c r="X37" s="171"/>
+      <c r="Y37" s="171"/>
+      <c r="Z37" s="171"/>
+      <c r="AA37" s="171"/>
+      <c r="AB37" s="171"/>
+      <c r="AC37" s="171"/>
+    </row>
+    <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="18"/>
+    <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20"/>
+    <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="17"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42" s="9"/>
     </row>
+    <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J35:AC36"/>
-    <mergeCell ref="J34:AC34"/>
-    <mergeCell ref="B33:I33"/>
+  <mergeCells count="10">
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="J36:AC37"/>
+    <mergeCell ref="J35:AC35"/>
+    <mergeCell ref="B34:I34"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="T3:X3"/>
     <mergeCell ref="Y3:AC3"/>
@@ -4578,21 +4836,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="183"/>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
+      <c r="A1" s="182"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4631,7 +4889,7 @@
         <v>42702</v>
       </c>
       <c r="C4" s="5">
-        <f>'IPA Zeitplanung'!J32</f>
+        <f>'IPA Zeitplanung'!J33</f>
         <v>0</v>
       </c>
     </row>
@@ -4644,7 +4902,7 @@
         <v>42703</v>
       </c>
       <c r="C5" s="5">
-        <f>'IPA Zeitplanung'!K32</f>
+        <f>'IPA Zeitplanung'!K33</f>
         <v>0</v>
       </c>
     </row>
@@ -4657,7 +4915,7 @@
         <v>42704</v>
       </c>
       <c r="C6" s="5">
-        <f>'IPA Zeitplanung'!L32</f>
+        <f>'IPA Zeitplanung'!L33</f>
         <v>0</v>
       </c>
     </row>
@@ -4670,7 +4928,7 @@
         <v>42705</v>
       </c>
       <c r="C7" s="5">
-        <f>'IPA Zeitplanung'!M32</f>
+        <f>'IPA Zeitplanung'!M33</f>
         <v>0</v>
       </c>
     </row>
@@ -4683,7 +4941,7 @@
         <v>42706</v>
       </c>
       <c r="C8" s="5">
-        <f>'IPA Zeitplanung'!N32</f>
+        <f>'IPA Zeitplanung'!N33</f>
         <v>0</v>
       </c>
     </row>
@@ -4696,7 +4954,7 @@
         <v>42709</v>
       </c>
       <c r="C9" s="5">
-        <f>'IPA Zeitplanung'!O32</f>
+        <f>'IPA Zeitplanung'!O33</f>
         <v>0</v>
       </c>
     </row>
@@ -4709,7 +4967,7 @@
         <v>42710</v>
       </c>
       <c r="C10" s="5">
-        <f>'IPA Zeitplanung'!P32</f>
+        <f>'IPA Zeitplanung'!P33</f>
         <v>0</v>
       </c>
     </row>
@@ -4722,7 +4980,7 @@
         <v>42711</v>
       </c>
       <c r="C11" s="5">
-        <f>'IPA Zeitplanung'!Q32</f>
+        <f>'IPA Zeitplanung'!Q33</f>
         <v>0</v>
       </c>
     </row>
@@ -4735,7 +4993,7 @@
         <v>42712</v>
       </c>
       <c r="C12" s="5">
-        <f>'IPA Zeitplanung'!R32</f>
+        <f>'IPA Zeitplanung'!R33</f>
         <v>0</v>
       </c>
     </row>
@@ -4748,7 +5006,7 @@
         <v>42713</v>
       </c>
       <c r="C13" s="5">
-        <f>'IPA Zeitplanung'!S32</f>
+        <f>'IPA Zeitplanung'!S33</f>
         <v>0</v>
       </c>
     </row>
@@ -4761,7 +5019,7 @@
         <v>42716</v>
       </c>
       <c r="C14" s="5">
-        <f>'IPA Zeitplanung'!T32</f>
+        <f>'IPA Zeitplanung'!T33</f>
         <v>0</v>
       </c>
     </row>
@@ -4774,7 +5032,7 @@
         <v>42717</v>
       </c>
       <c r="C15" s="5">
-        <f>'IPA Zeitplanung'!U32</f>
+        <f>'IPA Zeitplanung'!U33</f>
         <v>0</v>
       </c>
     </row>
@@ -4787,7 +5045,7 @@
         <v>42718</v>
       </c>
       <c r="C16" s="5">
-        <f>'IPA Zeitplanung'!V32</f>
+        <f>'IPA Zeitplanung'!V33</f>
         <v>0</v>
       </c>
     </row>
@@ -4800,7 +5058,7 @@
         <v>42719</v>
       </c>
       <c r="C17" s="5">
-        <f>'IPA Zeitplanung'!W32</f>
+        <f>'IPA Zeitplanung'!W33</f>
         <v>0</v>
       </c>
     </row>
@@ -4813,7 +5071,7 @@
         <v>42720</v>
       </c>
       <c r="C18" s="5">
-        <f>'IPA Zeitplanung'!X32</f>
+        <f>'IPA Zeitplanung'!X33</f>
         <v>0</v>
       </c>
     </row>
@@ -4826,7 +5084,7 @@
         <v>42723</v>
       </c>
       <c r="C19" s="5">
-        <f>'IPA Zeitplanung'!Y32</f>
+        <f>'IPA Zeitplanung'!Y33</f>
         <v>0</v>
       </c>
     </row>
@@ -4839,7 +5097,7 @@
         <v>42724</v>
       </c>
       <c r="C20" s="5">
-        <f>'IPA Zeitplanung'!Z32</f>
+        <f>'IPA Zeitplanung'!Z33</f>
         <v>0</v>
       </c>
     </row>
@@ -4852,7 +5110,7 @@
         <v>42725</v>
       </c>
       <c r="C21" s="5">
-        <f>'IPA Zeitplanung'!AA32</f>
+        <f>'IPA Zeitplanung'!AA33</f>
         <v>0</v>
       </c>
     </row>
@@ -4865,7 +5123,7 @@
         <v>42726</v>
       </c>
       <c r="C22" s="5">
-        <f>'IPA Zeitplanung'!AB32</f>
+        <f>'IPA Zeitplanung'!AB33</f>
         <v>0</v>
       </c>
     </row>
@@ -4878,7 +5136,7 @@
         <v>42727</v>
       </c>
       <c r="C23" s="5">
-        <f>'IPA Zeitplanung'!AC32</f>
+        <f>'IPA Zeitplanung'!AC33</f>
         <v>0</v>
       </c>
     </row>
@@ -4898,10 +5156,10 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
+      <c r="A27" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="185"/>
+      <c r="B27" s="184"/>
       <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
@@ -4910,10 +5168,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="182"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>17</v>
@@ -4924,10 +5182,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="186" t="s">
+      <c r="A29" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="187"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
@@ -4938,10 +5196,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>152</v>
@@ -4952,10 +5210,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="186" t="s">
+      <c r="A31" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="187"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>
@@ -4966,24 +5224,24 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="182"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="5">
-        <f>'IPA Zeitplanung'!C30</f>
+        <f>'IPA Zeitplanung'!C31</f>
         <v>34</v>
       </c>
       <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D30)</f>
+        <f>SUM('IPA Zeitplanung'!D31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="182"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="5" t="e">
         <f>'IPA Zeitplanung'!#REF!</f>
         <v>#REF!</v>

--- a/documents/02 Zeitplanung.xlsx
+++ b/documents/02 Zeitplanung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IPA Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'IPA Zeitplanung'!$A$1:$AC$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ist Arbeitszeit - Übersicht'!$A$1:$O$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Nr.</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Testen</t>
   </si>
   <si>
     <t>Abschluss</t>
@@ -1985,6 +1982,51 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2000,15 +2042,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2029,42 +2062,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="53" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Akzent3" xfId="1" builtinId="37"/>
@@ -2375,9 +2372,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ist Arbeitszeit - Übersicht'!$A$28:$A$33</c:f>
+              <c:f>'Ist Arbeitszeit - Übersicht'!$A$28:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Planung &amp; Dokumentation</c:v>
                 </c:pt>
@@ -2388,12 +2385,9 @@
                   <c:v>Implementation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Testen</c:v>
+                  <c:v>Diverses</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Diverses</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Abschluss</c:v>
                 </c:pt>
               </c:strCache>
@@ -2401,10 +2395,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ist Arbeitszeit - Übersicht'!$C$28:$C$33</c:f>
+              <c:f>'Ist Arbeitszeit - Übersicht'!$C$28:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>17</c:v>
                 </c:pt>
@@ -2415,13 +2409,10 @@
                   <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,9 +2440,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Ist Arbeitszeit - Übersicht'!$A$28:$A$33</c:f>
+              <c:f>'Ist Arbeitszeit - Übersicht'!$A$28:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Planung &amp; Dokumentation</c:v>
                 </c:pt>
@@ -2462,12 +2453,9 @@
                   <c:v>Implementation</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Testen</c:v>
+                  <c:v>Diverses</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Diverses</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>Abschluss</c:v>
                 </c:pt>
               </c:strCache>
@@ -2475,27 +2463,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ist Arbeitszeit - Übersicht'!$D$28:$D$33</c:f>
+              <c:f>'Ist Arbeitszeit - Übersicht'!$D$28:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,7 +2604,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>524433</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>13446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3001,11 +2986,11 @@
   </sheetPr>
   <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="4" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="4" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AH26" sqref="AH26"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3029,37 +3014,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="175" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
+      <c r="A1" s="190" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
     </row>
     <row r="2" spans="1:34" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
@@ -3075,50 +3060,50 @@
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="72"/>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="177"/>
+      <c r="D3" s="184"/>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="176" t="s">
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="176" t="s">
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="176" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="177"/>
-      <c r="AC3" s="178"/>
-      <c r="AD3" s="176" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="177"/>
-      <c r="AF3" s="177"/>
-      <c r="AG3" s="177"/>
-      <c r="AH3" s="178"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="185"/>
     </row>
     <row r="4" spans="1:34" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="104" t="s">
@@ -3135,13 +3120,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="115" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="84" t="s">
         <v>8</v>
@@ -3242,7 +3227,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="92">
         <f>SUM(C6:C10)</f>
@@ -3250,7 +3235,7 @@
       </c>
       <c r="D5" s="93">
         <f>SUM(D6:D10)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
@@ -3288,12 +3273,14 @@
         <v>11</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="34">
         <v>5</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="D6" s="35">
+        <v>5</v>
+      </c>
       <c r="E6" s="33">
         <v>1</v>
       </c>
@@ -3301,7 +3288,7 @@
       <c r="G6" s="60"/>
       <c r="H6" s="36"/>
       <c r="I6" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="121"/>
       <c r="K6" s="38"/>
@@ -3334,14 +3321,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="35" t="str">
-        <f t="shared" ref="D7:D10" si="0">IF(SUM(J7:AC7)=0," ",SUM(J7:AC7))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D7" s="35">
+        <v>3</v>
       </c>
       <c r="E7" s="43">
         <v>1</v>
@@ -3350,7 +3336,7 @@
       <c r="G7" s="60"/>
       <c r="H7" s="36"/>
       <c r="I7" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="121"/>
       <c r="K7" s="38"/>
@@ -3383,14 +3369,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="44">
         <v>4</v>
       </c>
-      <c r="D8" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D8" s="35">
+        <v>6</v>
       </c>
       <c r="E8" s="43">
         <v>1</v>
@@ -3399,7 +3384,7 @@
       <c r="G8" s="60"/>
       <c r="H8" s="36"/>
       <c r="I8" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="121"/>
       <c r="K8" s="122"/>
@@ -3432,14 +3417,13 @@
         <v>14</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="44">
         <v>4</v>
       </c>
-      <c r="D9" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D9" s="35">
+        <v>1</v>
       </c>
       <c r="E9" s="43">
         <v>1</v>
@@ -3479,14 +3463,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="55">
         <v>3</v>
       </c>
-      <c r="D10" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+      <c r="D10" s="35">
+        <v>6</v>
       </c>
       <c r="E10" s="54">
         <v>1</v>
@@ -3526,7 +3509,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="103">
         <f>SUM(C12:C14)</f>
@@ -3572,7 +3555,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="34">
         <v>1</v>
@@ -3585,7 +3568,7 @@
       <c r="G12" s="60"/>
       <c r="H12" s="36"/>
       <c r="I12" s="86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J12" s="143"/>
       <c r="K12" s="38"/>
@@ -3620,7 +3603,7 @@
       <c r="B13" s="75"/>
       <c r="C13" s="34"/>
       <c r="D13" s="59" t="str">
-        <f t="shared" ref="D13:D14" si="1">IF(SUM(J13:AC13)=0," ",SUM(J13:AC13))</f>
+        <f t="shared" ref="D13:D14" si="0">IF(SUM(J13:AC13)=0," ",SUM(J13:AC13))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="33"/>
@@ -3661,7 +3644,7 @@
       <c r="B14" s="75"/>
       <c r="C14" s="34"/>
       <c r="D14" s="59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="33">
@@ -3704,7 +3687,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="92">
         <f>SUM(C16:C29)</f>
@@ -3712,7 +3695,7 @@
       </c>
       <c r="D15" s="93">
         <f>SUM(D16:D21)</f>
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E15" s="94"/>
       <c r="F15" s="95"/>
@@ -3750,13 +3733,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="34">
         <v>8</v>
       </c>
       <c r="D16" s="59">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E16" s="33">
         <v>1</v>
@@ -3765,7 +3748,7 @@
       <c r="G16" s="60"/>
       <c r="H16" s="36"/>
       <c r="I16" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="38"/>
@@ -3798,13 +3781,13 @@
         <v>32</v>
       </c>
       <c r="B17" s="82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="34">
         <v>4</v>
       </c>
       <c r="D17" s="59">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E17" s="166">
         <v>1</v>
@@ -3813,7 +3796,7 @@
       <c r="G17" s="60"/>
       <c r="H17" s="36"/>
       <c r="I17" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="38"/>
@@ -3846,13 +3829,13 @@
         <v>33</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="34">
         <v>16</v>
       </c>
       <c r="D18" s="59">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="166">
         <v>1</v>
@@ -3861,7 +3844,7 @@
       <c r="G18" s="60"/>
       <c r="H18" s="36"/>
       <c r="I18" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="38"/>
@@ -3894,13 +3877,13 @@
         <v>34</v>
       </c>
       <c r="B19" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="34">
         <v>10</v>
       </c>
       <c r="D19" s="59">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" s="166">
         <v>1</v>
@@ -3909,7 +3892,7 @@
       <c r="G19" s="60"/>
       <c r="H19" s="36"/>
       <c r="I19" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="38"/>
@@ -3942,7 +3925,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="34">
         <v>16</v>
@@ -3957,7 +3940,7 @@
       <c r="G20" s="60"/>
       <c r="H20" s="36"/>
       <c r="I20" s="86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J20" s="60"/>
       <c r="K20" s="38"/>
@@ -3990,13 +3973,13 @@
         <v>36</v>
       </c>
       <c r="B21" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="44">
         <v>12</v>
       </c>
       <c r="D21" s="35">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E21" s="167">
         <v>1</v>
@@ -4005,7 +3988,7 @@
       <c r="G21" s="60"/>
       <c r="H21" s="36"/>
       <c r="I21" s="86" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="46"/>
@@ -4038,7 +4021,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="44">
         <v>16</v>
@@ -4084,7 +4067,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="44">
         <v>8</v>
@@ -4130,19 +4113,23 @@
         <v>39</v>
       </c>
       <c r="B24" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="44">
         <v>16</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="35">
+        <v>16</v>
+      </c>
       <c r="E24" s="165">
         <v>2</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="60"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="86"/>
+      <c r="I24" s="86" t="s">
+        <v>52</v>
+      </c>
       <c r="J24" s="53"/>
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
@@ -4174,7 +4161,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="44">
         <v>6</v>
@@ -4218,14 +4205,13 @@
         <v>41</v>
       </c>
       <c r="B26" s="82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="44">
         <v>12</v>
       </c>
-      <c r="D26" s="35" t="str">
-        <f t="shared" ref="D26:D29" si="2">IF(SUM(J26:AC26)=0," ",SUM(J26:AC26))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D26" s="35">
+        <v>14</v>
       </c>
       <c r="E26" s="167">
         <v>1</v>
@@ -4233,7 +4219,9 @@
       <c r="F26" s="34"/>
       <c r="G26" s="60"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="86"/>
+      <c r="I26" s="86" t="s">
+        <v>52</v>
+      </c>
       <c r="J26" s="53"/>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
@@ -4265,13 +4253,13 @@
         <v>42</v>
       </c>
       <c r="B27" s="82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="44">
         <v>12</v>
       </c>
       <c r="D27" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D26:D29" si="1">IF(SUM(J27:AC27)=0," ",SUM(J27:AC27))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E27" s="165">
@@ -4312,13 +4300,13 @@
         <v>43</v>
       </c>
       <c r="B28" s="82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="44">
         <v>8</v>
       </c>
       <c r="D28" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E28" s="164">
@@ -4359,13 +4347,13 @@
         <v>44</v>
       </c>
       <c r="B29" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="44">
         <v>8</v>
       </c>
       <c r="D29" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E29" s="164">
@@ -4406,33 +4394,37 @@
         <v>45</v>
       </c>
       <c r="B30" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="44">
         <v>16</v>
       </c>
-      <c r="D30" s="35"/>
+      <c r="D30" s="35">
+        <v>22</v>
+      </c>
       <c r="E30" s="167">
         <v>1</v>
       </c>
       <c r="F30" s="57"/>
       <c r="G30" s="66"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="188"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172" t="s">
+        <v>53</v>
+      </c>
       <c r="J30" s="66"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="192"/>
-      <c r="O30" s="193"/>
-      <c r="P30" s="194"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="195"/>
-      <c r="S30" s="192"/>
-      <c r="T30" s="195"/>
-      <c r="U30" s="196"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="178"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="179"/>
+      <c r="S30" s="176"/>
+      <c r="T30" s="179"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
       <c r="X30" s="66"/>
       <c r="Y30" s="63"/>
       <c r="Z30" s="65"/>
@@ -4441,16 +4433,16 @@
       <c r="AC30" s="78"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="65"/>
-      <c r="AF30" s="197"/>
-      <c r="AG30" s="197"/>
-      <c r="AH30" s="198"/>
+      <c r="AF30" s="181"/>
+      <c r="AG30" s="181"/>
+      <c r="AH30" s="182"/>
     </row>
     <row r="31" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
         <v>50</v>
       </c>
       <c r="B31" s="90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="92">
         <f>SUM(C32)</f>
@@ -4458,7 +4450,7 @@
       </c>
       <c r="D31" s="93">
         <f>SUM(D32)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E31" s="94"/>
       <c r="F31" s="95"/>
@@ -4502,9 +4494,8 @@
         <f>SUM(C5,C11,C15)*0.2</f>
         <v>34</v>
       </c>
-      <c r="D32" s="65" t="str">
-        <f>IF(SUM(J32:AC32)=0," ",SUM(J32:AC32))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D32" s="65">
+        <v>34</v>
       </c>
       <c r="E32" s="62">
         <v>3</v>
@@ -4548,9 +4539,9 @@
         <f>SUM(C5,C11,C15,C31)</f>
         <v>204</v>
       </c>
-      <c r="D33" s="108" t="str">
-        <f>IF(SUM(J33:AC33)=0," ",SUM(J33:AC33))</f>
-        <v xml:space="preserve"> </v>
+      <c r="D33" s="108">
+        <f>SUM(D5,D11,D15,D31)</f>
+        <v>180</v>
       </c>
       <c r="E33" s="108"/>
       <c r="F33" s="108"/>
@@ -4558,83 +4549,83 @@
       <c r="H33" s="109"/>
       <c r="I33" s="110"/>
       <c r="J33" s="111">
-        <f t="shared" ref="J33:AC33" si="3">SUM(J5:J32)</f>
+        <f t="shared" ref="J33:AC33" si="2">SUM(J5:J32)</f>
         <v>0</v>
       </c>
       <c r="K33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA33" s="112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB33" s="108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC33" s="113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD33" s="112">
@@ -4660,19 +4651,19 @@
     </row>
     <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="117"/>
       <c r="B35" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
@@ -4681,31 +4672,31 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
-      <c r="M35" s="173"/>
-      <c r="N35" s="173"/>
-      <c r="O35" s="173"/>
-      <c r="P35" s="173"/>
-      <c r="Q35" s="173"/>
-      <c r="R35" s="173"/>
-      <c r="S35" s="173"/>
-      <c r="T35" s="173"/>
-      <c r="U35" s="173"/>
-      <c r="V35" s="173"/>
-      <c r="W35" s="173"/>
-      <c r="X35" s="173"/>
-      <c r="Y35" s="173"/>
-      <c r="Z35" s="173"/>
-      <c r="AA35" s="173"/>
-      <c r="AB35" s="173"/>
-      <c r="AC35" s="173"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="188"/>
+      <c r="O35" s="188"/>
+      <c r="P35" s="188"/>
+      <c r="Q35" s="188"/>
+      <c r="R35" s="188"/>
+      <c r="S35" s="188"/>
+      <c r="T35" s="188"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="188"/>
+      <c r="W35" s="188"/>
+      <c r="X35" s="188"/>
+      <c r="Y35" s="188"/>
+      <c r="Z35" s="188"/>
+      <c r="AA35" s="188"/>
+      <c r="AB35" s="188"/>
+      <c r="AC35" s="188"/>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="162"/>
       <c r="B36" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="18"/>
@@ -4714,26 +4705,26 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
-      <c r="M36" s="171"/>
-      <c r="N36" s="171"/>
-      <c r="O36" s="171"/>
-      <c r="P36" s="171"/>
-      <c r="Q36" s="171"/>
-      <c r="R36" s="171"/>
-      <c r="S36" s="171"/>
-      <c r="T36" s="171"/>
-      <c r="U36" s="171"/>
-      <c r="V36" s="171"/>
-      <c r="W36" s="171"/>
-      <c r="X36" s="171"/>
-      <c r="Y36" s="171"/>
-      <c r="Z36" s="171"/>
-      <c r="AA36" s="171"/>
-      <c r="AB36" s="171"/>
-      <c r="AC36" s="171"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="186"/>
+      <c r="L36" s="186"/>
+      <c r="M36" s="186"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186"/>
+      <c r="R36" s="186"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="186"/>
+      <c r="U36" s="186"/>
+      <c r="V36" s="186"/>
+      <c r="W36" s="186"/>
+      <c r="X36" s="186"/>
+      <c r="Y36" s="186"/>
+      <c r="Z36" s="186"/>
+      <c r="AA36" s="186"/>
+      <c r="AB36" s="186"/>
+      <c r="AC36" s="186"/>
     </row>
     <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
@@ -4745,26 +4736,26 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="171"/>
-      <c r="P37" s="171"/>
-      <c r="Q37" s="171"/>
-      <c r="R37" s="171"/>
-      <c r="S37" s="171"/>
-      <c r="T37" s="171"/>
-      <c r="U37" s="171"/>
-      <c r="V37" s="171"/>
-      <c r="W37" s="171"/>
-      <c r="X37" s="171"/>
-      <c r="Y37" s="171"/>
-      <c r="Z37" s="171"/>
-      <c r="AA37" s="171"/>
-      <c r="AB37" s="171"/>
-      <c r="AC37" s="171"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="186"/>
+      <c r="M37" s="186"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="186"/>
+      <c r="U37" s="186"/>
+      <c r="V37" s="186"/>
+      <c r="W37" s="186"/>
+      <c r="X37" s="186"/>
+      <c r="Y37" s="186"/>
+      <c r="Z37" s="186"/>
+      <c r="AA37" s="186"/>
+      <c r="AB37" s="186"/>
+      <c r="AC37" s="186"/>
     </row>
     <row r="38" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
@@ -4820,10 +4811,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4836,21 +4827,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="182"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
+      <c r="A1" s="194"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4871,13 +4862,13 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5156,36 +5147,36 @@
     <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="196"/>
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="184"/>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="180" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="181"/>
+      <c r="A28" s="192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="193"/>
       <c r="C28" s="5">
         <f>'IPA Zeitplanung'!C5</f>
         <v>17</v>
       </c>
       <c r="D28" s="5">
         <f>'IPA Zeitplanung'!D5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="185" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="186"/>
+      <c r="A29" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="198"/>
       <c r="C29" s="5">
         <f>'IPA Zeitplanung'!C11</f>
         <v>1</v>
@@ -5196,72 +5187,57 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="181"/>
+      <c r="A30" s="192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="193"/>
       <c r="C30" s="5">
         <f>'IPA Zeitplanung'!C15</f>
         <v>152</v>
       </c>
       <c r="D30" s="5">
         <f>'IPA Zeitplanung'!D15</f>
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="185" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="186"/>
-      <c r="C31" s="5" t="e">
-        <f>'IPA Zeitplanung'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="5" t="e">
-        <f>'IPA Zeitplanung'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="181"/>
-      <c r="C32" s="5">
+      <c r="A31" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="193"/>
+      <c r="C31" s="5">
         <f>'IPA Zeitplanung'!C31</f>
         <v>34</v>
       </c>
+      <c r="D31" s="5">
+        <f>SUM('IPA Zeitplanung'!D31)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="193"/>
+      <c r="C32" s="5">
+        <f>'IPA Zeitplanung'!C30</f>
+        <v>16</v>
+      </c>
       <c r="D32" s="5">
-        <f>SUM('IPA Zeitplanung'!D31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="180" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="181"/>
-      <c r="C33" s="5" t="e">
-        <f>'IPA Zeitplanung'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D33" s="5" t="e">
-        <f>'IPA Zeitplanung'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
+        <f>'IPA Zeitplanung'!D30</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
